--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>813882.8488856829</v>
+        <v>810200.4466082043</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16683936.64456666</v>
+        <v>16683936.64456667</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6696638.27147849</v>
+        <v>6696638.271478495</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>245.512772560321</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -670,13 +670,13 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>274.4816578121619</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475954</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>64.91394973603619</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>220.264774625403</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>16.56126302845565</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>252.5175149284559</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>53.16416192357889</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>224.5694500423145</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>184.4676964627104</v>
+        <v>346.1861761487856</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1341,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>65.42520756919141</v>
+        <v>100.8330519902538</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>130.8963460335996</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>293.6080910769474</v>
+        <v>94.63640085891424</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.3515785398912</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.9185084023712</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5393191320511</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.5849849824587</v>
+        <v>68.84351100298413</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>173.695436859659</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>403.2552991963672</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>75.78271063311666</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>191.1886224374255</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1770,13 +1770,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.9563089197291</v>
@@ -1785,7 +1785,7 @@
         <v>142.5849849824587</v>
       </c>
       <c r="I16" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>173.695436859659</v>
       </c>
       <c r="T16" t="n">
-        <v>234.4974173178651</v>
+        <v>161.8164030364267</v>
       </c>
       <c r="U16" t="n">
-        <v>191.4769325119679</v>
+        <v>279.9362617114834</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>343.8472177314191</v>
       </c>
       <c r="E17" t="n">
-        <v>117.0503441154426</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.3790306575067</v>
@@ -1909,10 +1909,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2004,10 +2004,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -2016,13 +2016,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9563089197291</v>
+        <v>154.7498435696299</v>
       </c>
       <c r="H19" t="n">
-        <v>142.5849849824587</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>135.9316763206946</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9362617114834</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2083,25 +2083,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>400.9538186593841</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>293.6080910769474</v>
       </c>
       <c r="I20" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3790306575067</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>212.119386293708</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.8025906892035</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>173.695436859659</v>
       </c>
       <c r="T22" t="n">
-        <v>234.4974173178651</v>
+        <v>144.0392213404859</v>
       </c>
       <c r="U22" t="n">
         <v>279.9362617114834</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.6599040051074</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>73.76345552804206</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2338,7 +2338,7 @@
         <v>293.6080910769474</v>
       </c>
       <c r="I23" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>213.9185084023712</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3790306575067</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2490,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.9563089197291</v>
+        <v>69.08644346437144</v>
       </c>
       <c r="H25" t="n">
         <v>142.5849849824587</v>
       </c>
       <c r="I25" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>234.4974173178651</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>247.9485055193263</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>179.6936242170004</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>102.3515785398912</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3790306575067</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>383.7115184607472</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2727,7 +2727,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.5849849824587</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T28" t="n">
-        <v>183.9204277511218</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>2.287535737025808</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>36.18312236464683</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>403.2552991963672</v>
+        <v>170.5019626705464</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>142.5849849824587</v>
       </c>
       <c r="I31" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>143.901968331722</v>
+        <v>108.4781144271701</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75.35436092904803</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>79.52782947745689</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>39.50571540007965</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.5849849824587</v>
       </c>
       <c r="I34" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U34" t="n">
         <v>279.9362617114834</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.77310145909483</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3268,25 +3268,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>194.4147428905463</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>102.3515785398912</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>81.2419166099168</v>
       </c>
     </row>
     <row r="36">
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U37" t="n">
-        <v>183.9204277511218</v>
+        <v>279.9362617114834</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>51.03019434080952</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>162.623074692029</v>
       </c>
       <c r="H38" t="n">
-        <v>293.6080910769474</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>267.7207472423116</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.1307446931439</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>101.7621374361103</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.9563089197291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>173.695436859659</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.07655138337874</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.9185084023712</v>
+        <v>159.3882982537709</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3790306575067</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3906,13 +3906,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>145.4412300905302</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>196.0757257720228</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>102.3515785398912</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>213.9185084023712</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>264.9746532319202</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4155,7 +4155,7 @@
         <v>142.5849849824587</v>
       </c>
       <c r="I46" t="n">
-        <v>96.49003242675761</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>56.4715730073581</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>173.695436859659</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9362617114834</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>146.0380881183492</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>177.4007223454378</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>408.5107732503154</v>
+        <v>1141.815353557804</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>731.6907628710738</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>731.2672370045384</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>720.9674255618391</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4330,22 +4330,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
         <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
+        <v>692.8507596625949</v>
+      </c>
+      <c r="M2" t="n">
+        <v>692.8507596625949</v>
+      </c>
+      <c r="N2" t="n">
+        <v>692.8507596625949</v>
+      </c>
+      <c r="O2" t="n">
         <v>1209.69369432892</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1726.536628995245</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1726.536628995245</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4366,16 +4366,16 @@
         <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1219.375350745852</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>818.7319529148049</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>818.7319529148049</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
         <v>349.2108824768026</v>
@@ -4412,25 +4412,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>1724.070068790184</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1738.409816796119</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>795.5184034955518</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C4" t="n">
-        <v>624.4250310572683</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D4" t="n">
-        <v>624.4250310572683</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E4" t="n">
-        <v>624.4250310572683</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F4" t="n">
-        <v>624.4250310572683</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>624.4250310572683</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>624.4250310572683</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1720.183415701626</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.297670641148</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>1446.297670641148</v>
+        <v>1348.674310911661</v>
       </c>
       <c r="X4" t="n">
-        <v>1207.953808500831</v>
+        <v>1110.330448771344</v>
       </c>
       <c r="Y4" t="n">
-        <v>983.2181098895961</v>
+        <v>885.5947501601092</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.9476870282217</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C5" t="n">
-        <v>176.8230963414918</v>
+        <v>1536.667839963387</v>
       </c>
       <c r="D5" t="n">
-        <v>160.0945478279002</v>
+        <v>1132.203910056448</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>717.8636945733447</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>296.8332825270322</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,19 +4570,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>997.1688666927112</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>997.1688666927112</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>158.3214934345131</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008383</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
         <v>1192.007362767164</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>329.2045039635594</v>
+        <v>404.5683591614161</v>
       </c>
       <c r="C7" t="n">
-        <v>158.1111315252759</v>
+        <v>404.5683591614161</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>245.0737144843261</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U7" t="n">
-        <v>1485.891263925851</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.053435600281</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W7" t="n">
-        <v>979.9837711091557</v>
+        <v>592.2680655554605</v>
       </c>
       <c r="X7" t="n">
-        <v>741.6399089688391</v>
+        <v>592.2680655554605</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.9042103576038</v>
+        <v>592.2680655554605</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>670.1983823596936</v>
+        <v>1323.942548765929</v>
       </c>
       <c r="C8" t="n">
-        <v>260.0737916729637</v>
+        <v>1317.858362119603</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,49 +4807,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="N8" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="O8" t="n">
         <v>1329.636426430007</v>
       </c>
-      <c r="N8" t="n">
-        <v>1846.479361096332</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1846.479361096332</v>
-      </c>
       <c r="P8" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1481.356235076093</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1481.356235076093</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>1481.356235076093</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y8" t="n">
-        <v>1080.419562024183</v>
+        <v>1330.123324390014</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>2058.694762117472</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.1111315252759</v>
+        <v>971.6042912536486</v>
       </c>
       <c r="C10" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D10" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>158.1111315252759</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>158.1111315252759</v>
+        <v>1384.039696258928</v>
       </c>
       <c r="Y10" t="n">
-        <v>158.1111315252759</v>
+        <v>1159.303997647693</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>472.4545416193141</v>
+        <v>549.3790956882331</v>
       </c>
       <c r="C11" t="n">
-        <v>472.4545416193141</v>
+        <v>139.2545050015032</v>
       </c>
       <c r="D11" t="n">
-        <v>472.4545416193141</v>
+        <v>139.2545050015032</v>
       </c>
       <c r="E11" t="n">
-        <v>472.4545416193141</v>
+        <v>139.2545050015032</v>
       </c>
       <c r="F11" t="n">
-        <v>472.4545416193141</v>
+        <v>139.2545050015032</v>
       </c>
       <c r="G11" t="n">
-        <v>340.2360102722438</v>
+        <v>139.2545050015032</v>
       </c>
       <c r="H11" t="n">
         <v>43.66218090158979</v>
@@ -5041,52 +5041,52 @@
         <v>43.66218090158979</v>
       </c>
       <c r="J11" t="n">
-        <v>87.50545921186747</v>
+        <v>414.2812860995966</v>
       </c>
       <c r="K11" t="n">
-        <v>173.7642680911461</v>
+        <v>500.5400949788752</v>
       </c>
       <c r="L11" t="n">
-        <v>714.0837567483196</v>
+        <v>622.4969884717257</v>
       </c>
       <c r="M11" t="n">
-        <v>1254.403245405493</v>
+        <v>771.0236532250346</v>
       </c>
       <c r="N11" t="n">
-        <v>1470.361463401075</v>
+        <v>923.8222270873267</v>
       </c>
       <c r="O11" t="n">
-        <v>1609.244043036586</v>
+        <v>1062.704806722838</v>
       </c>
       <c r="P11" t="n">
-        <v>1713.804206245577</v>
+        <v>1587.073398994776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2183.109045079489</v>
+        <v>2056.378237828688</v>
       </c>
       <c r="R11" t="n">
         <v>2183.109045079489</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.723612210912</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="T11" t="n">
-        <v>1863.644310794376</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="U11" t="n">
-        <v>1606.695794978712</v>
+        <v>1710.081227847289</v>
       </c>
       <c r="V11" t="n">
-        <v>1256.858240315193</v>
+        <v>1360.24367318377</v>
       </c>
       <c r="W11" t="n">
-        <v>873.0979394503615</v>
+        <v>1360.24367318377</v>
       </c>
       <c r="X11" t="n">
-        <v>472.4545416193141</v>
+        <v>959.6002753527225</v>
       </c>
       <c r="Y11" t="n">
-        <v>472.4545416193141</v>
+        <v>959.6002753527225</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I12" t="n">
-        <v>43.66218090158979</v>
+        <v>48.59804006746688</v>
       </c>
       <c r="J12" t="n">
-        <v>62.15370908908379</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K12" t="n">
-        <v>602.4731977462574</v>
+        <v>374.0156432028919</v>
       </c>
       <c r="L12" t="n">
-        <v>1142.792686403431</v>
+        <v>600.7573165825859</v>
       </c>
       <c r="M12" t="n">
-        <v>1271.783363993311</v>
+        <v>729.7479941724661</v>
       </c>
       <c r="N12" t="n">
-        <v>1410.023542186133</v>
+        <v>867.9881723652878</v>
       </c>
       <c r="O12" t="n">
-        <v>1920.428460200631</v>
+        <v>985.4519109452582</v>
       </c>
       <c r="P12" t="n">
-        <v>2006.873574368651</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q12" t="n">
-        <v>2044.442569349528</v>
+        <v>1969.310551587083</v>
       </c>
       <c r="R12" t="n">
         <v>2044.442569349528</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.6878654114419</v>
+        <v>284.2944533428876</v>
       </c>
       <c r="C13" t="n">
-        <v>639.6878654114419</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="D13" t="n">
-        <v>639.6878654114419</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="E13" t="n">
-        <v>518.94107840937</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="F13" t="n">
-        <v>354.3099525199613</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="G13" t="n">
-        <v>187.6874182576087</v>
+        <v>113.2010809046041</v>
       </c>
       <c r="H13" t="n">
         <v>43.66218090158979</v>
@@ -5202,19 +5202,19 @@
         <v>101.2508563378979</v>
       </c>
       <c r="K13" t="n">
-        <v>327.2971136830528</v>
+        <v>327.2971136830529</v>
       </c>
       <c r="L13" t="n">
-        <v>678.6818293819854</v>
+        <v>678.6818293819856</v>
       </c>
       <c r="M13" t="n">
         <v>1064.406748771458</v>
       </c>
       <c r="N13" t="n">
-        <v>1439.41277039439</v>
+        <v>1439.412770394391</v>
       </c>
       <c r="O13" t="n">
-        <v>1785.952067557884</v>
+        <v>1785.952067557885</v>
       </c>
       <c r="P13" t="n">
         <v>2066.052800429037</v>
@@ -5223,28 +5223,28 @@
         <v>2183.109045079489</v>
       </c>
       <c r="R13" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S13" t="n">
-        <v>1950.617115920886</v>
+        <v>2007.659108857611</v>
       </c>
       <c r="T13" t="n">
-        <v>1713.751037822032</v>
+        <v>1770.793030758758</v>
       </c>
       <c r="U13" t="n">
-        <v>1430.987137103362</v>
+        <v>1488.029130040087</v>
       </c>
       <c r="V13" t="n">
-        <v>1157.101392042884</v>
+        <v>1214.143384979609</v>
       </c>
       <c r="W13" t="n">
-        <v>878.0317275517584</v>
+        <v>935.0737204884838</v>
       </c>
       <c r="X13" t="n">
-        <v>639.6878654114419</v>
+        <v>696.7298583481672</v>
       </c>
       <c r="Y13" t="n">
-        <v>639.6878654114419</v>
+        <v>471.9941597369319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>855.4546958553649</v>
+        <v>1304.980781637829</v>
       </c>
       <c r="C14" t="n">
-        <v>855.4546958553649</v>
+        <v>894.8561909510987</v>
       </c>
       <c r="D14" t="n">
-        <v>450.9907659484253</v>
+        <v>490.3922610441592</v>
       </c>
       <c r="E14" t="n">
-        <v>450.9907659484253</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="F14" t="n">
-        <v>450.9907659484253</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="G14" t="n">
-        <v>43.66218090158979</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="H14" t="n">
-        <v>43.66218090158979</v>
+        <v>76.05204556105591</v>
       </c>
       <c r="I14" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J14" t="n">
-        <v>87.50545921186749</v>
+        <v>414.2812860995966</v>
       </c>
       <c r="K14" t="n">
-        <v>627.8249478690411</v>
+        <v>954.6007747567703</v>
       </c>
       <c r="L14" t="n">
-        <v>749.7818413618916</v>
+        <v>1494.920263413944</v>
       </c>
       <c r="M14" t="n">
-        <v>930.0419747439014</v>
+        <v>1643.446928167253</v>
       </c>
       <c r="N14" t="n">
-        <v>1470.361463401075</v>
+        <v>1796.245502029545</v>
       </c>
       <c r="O14" t="n">
-        <v>1609.244043036586</v>
+        <v>2019.538516187039</v>
       </c>
       <c r="P14" t="n">
-        <v>1713.804206245578</v>
+        <v>2124.09867939603</v>
       </c>
       <c r="Q14" t="n">
         <v>2183.10904507949</v>
@@ -5308,22 +5308,22 @@
         <v>2183.10904507949</v>
       </c>
       <c r="T14" t="n">
-        <v>2183.10904507949</v>
+        <v>2106.560852520786</v>
       </c>
       <c r="U14" t="n">
-        <v>2183.10904507949</v>
+        <v>2106.560852520786</v>
       </c>
       <c r="V14" t="n">
-        <v>1833.27149041597</v>
+        <v>2106.560852520786</v>
       </c>
       <c r="W14" t="n">
-        <v>1449.511189551139</v>
+        <v>2106.560852520786</v>
       </c>
       <c r="X14" t="n">
-        <v>1256.391368907275</v>
+        <v>1705.917454689738</v>
       </c>
       <c r="Y14" t="n">
-        <v>855.4546958553649</v>
+        <v>1304.980781637829</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I15" t="n">
-        <v>43.66218090158979</v>
+        <v>48.5980400674669</v>
       </c>
       <c r="J15" t="n">
-        <v>62.1537090890838</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K15" t="n">
-        <v>125.4113800623815</v>
+        <v>496.9389423096853</v>
       </c>
       <c r="L15" t="n">
-        <v>229.2297543352818</v>
+        <v>600.7573165825856</v>
       </c>
       <c r="M15" t="n">
-        <v>769.5492429924554</v>
+        <v>729.747994172466</v>
       </c>
       <c r="N15" t="n">
-        <v>1309.868731649629</v>
+        <v>867.9881723652877</v>
       </c>
       <c r="O15" t="n">
-        <v>1466.554085711478</v>
+        <v>985.4519109452581</v>
       </c>
       <c r="P15" t="n">
-        <v>2006.873574368651</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q15" t="n">
-        <v>2044.442569349528</v>
+        <v>1969.310551587083</v>
       </c>
       <c r="R15" t="n">
         <v>2044.442569349528</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1107.904589875371</v>
+        <v>525.4033249582449</v>
       </c>
       <c r="C16" t="n">
-        <v>936.8112174370876</v>
+        <v>354.3099525199614</v>
       </c>
       <c r="D16" t="n">
-        <v>777.3165727599976</v>
+        <v>354.3099525199614</v>
       </c>
       <c r="E16" t="n">
-        <v>616.4057576283171</v>
+        <v>354.3099525199614</v>
       </c>
       <c r="F16" t="n">
-        <v>451.7746317389084</v>
+        <v>354.3099525199614</v>
       </c>
       <c r="G16" t="n">
-        <v>285.1520974765558</v>
+        <v>187.6874182576087</v>
       </c>
       <c r="H16" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I16" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J16" t="n">
-        <v>101.2508563378974</v>
+        <v>101.2508563378978</v>
       </c>
       <c r="K16" t="n">
-        <v>327.2971136830524</v>
+        <v>327.2971136830527</v>
       </c>
       <c r="L16" t="n">
-        <v>678.6818293819849</v>
+        <v>678.6818293819854</v>
       </c>
       <c r="M16" t="n">
         <v>1064.406748771458</v>
       </c>
       <c r="N16" t="n">
-        <v>1439.41277039439</v>
+        <v>1439.412770394391</v>
       </c>
       <c r="O16" t="n">
-        <v>1785.952067557884</v>
+        <v>1785.952067557885</v>
       </c>
       <c r="P16" t="n">
         <v>2066.052800429038</v>
@@ -5466,22 +5466,22 @@
         <v>1950.617115920886</v>
       </c>
       <c r="T16" t="n">
-        <v>1713.751037822033</v>
+        <v>1787.16620376288</v>
       </c>
       <c r="U16" t="n">
-        <v>1520.339994880651</v>
+        <v>1504.402303044209</v>
       </c>
       <c r="V16" t="n">
-        <v>1520.339994880651</v>
+        <v>1230.516557983731</v>
       </c>
       <c r="W16" t="n">
-        <v>1520.339994880651</v>
+        <v>951.4468934926058</v>
       </c>
       <c r="X16" t="n">
-        <v>1520.339994880651</v>
+        <v>713.1030313522892</v>
       </c>
       <c r="Y16" t="n">
-        <v>1295.604296269415</v>
+        <v>713.1030313522892</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>976.4833723189386</v>
+        <v>390.9826028525182</v>
       </c>
       <c r="C17" t="n">
-        <v>566.3587816322087</v>
+        <v>390.9826028525182</v>
       </c>
       <c r="D17" t="n">
-        <v>161.8948517252692</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="E17" t="n">
         <v>43.66218090158979</v>
@@ -5515,52 +5515,52 @@
         <v>43.66218090158979</v>
       </c>
       <c r="J17" t="n">
-        <v>87.50545921186747</v>
+        <v>414.2812860995966</v>
       </c>
       <c r="K17" t="n">
-        <v>173.7642680911461</v>
+        <v>500.5400949788752</v>
       </c>
       <c r="L17" t="n">
-        <v>714.0837567483196</v>
+        <v>622.4969884717257</v>
       </c>
       <c r="M17" t="n">
-        <v>916.1259805171202</v>
+        <v>771.0236532250346</v>
       </c>
       <c r="N17" t="n">
-        <v>1068.924554379412</v>
+        <v>923.8222270873267</v>
       </c>
       <c r="O17" t="n">
-        <v>1609.244043036586</v>
+        <v>1062.704806722838</v>
       </c>
       <c r="P17" t="n">
-        <v>1713.804206245577</v>
+        <v>1587.073398994776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2183.109045079489</v>
+        <v>2056.378237828688</v>
       </c>
       <c r="R17" t="n">
-        <v>2183.109045079489</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="S17" t="n">
-        <v>2183.109045079489</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="T17" t="n">
-        <v>1967.029743662953</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="U17" t="n">
-        <v>1710.081227847289</v>
+        <v>1926.160529263826</v>
       </c>
       <c r="V17" t="n">
-        <v>1360.24367318377</v>
+        <v>1576.322974600307</v>
       </c>
       <c r="W17" t="n">
-        <v>976.4833723189386</v>
+        <v>1192.562673735476</v>
       </c>
       <c r="X17" t="n">
-        <v>976.4833723189386</v>
+        <v>791.9192759044281</v>
       </c>
       <c r="Y17" t="n">
-        <v>976.4833723189386</v>
+        <v>390.9826028525182</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>322.3776354892559</v>
       </c>
       <c r="F18" t="n">
-        <v>213.4177556717604</v>
+        <v>213.4177556717605</v>
       </c>
       <c r="G18" t="n">
         <v>107.1765480069175</v>
@@ -5591,28 +5591,28 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I18" t="n">
-        <v>43.66218090158979</v>
+        <v>48.5980400674669</v>
       </c>
       <c r="J18" t="n">
-        <v>62.15370908908379</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K18" t="n">
-        <v>125.4113800623815</v>
+        <v>851.0774608867679</v>
       </c>
       <c r="L18" t="n">
-        <v>229.2297543352818</v>
+        <v>1054.631691071739</v>
       </c>
       <c r="M18" t="n">
-        <v>769.5492429924554</v>
+        <v>1183.622368661619</v>
       </c>
       <c r="N18" t="n">
-        <v>1309.868731649629</v>
+        <v>1321.862546854441</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.332470229599</v>
+        <v>1439.326285434411</v>
       </c>
       <c r="P18" t="n">
-        <v>1931.741556606205</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q18" t="n">
         <v>1969.310551587083</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>936.8112174370876</v>
+        <v>696.610467663619</v>
       </c>
       <c r="C19" t="n">
-        <v>936.8112174370876</v>
+        <v>525.5170952253355</v>
       </c>
       <c r="D19" t="n">
-        <v>777.3165727599976</v>
+        <v>525.5170952253355</v>
       </c>
       <c r="E19" t="n">
-        <v>616.4057576283171</v>
+        <v>364.606280093655</v>
       </c>
       <c r="F19" t="n">
-        <v>451.7746317389084</v>
+        <v>199.9751542042463</v>
       </c>
       <c r="G19" t="n">
-        <v>285.1520974765558</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="H19" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I19" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2508563378978</v>
+        <v>101.2508563378977</v>
       </c>
       <c r="K19" t="n">
         <v>327.2971136830527</v>
       </c>
       <c r="L19" t="n">
-        <v>678.6818293819849</v>
+        <v>678.6818293819852</v>
       </c>
       <c r="M19" t="n">
         <v>1064.406748771458</v>
@@ -5700,25 +5700,25 @@
         <v>2183.109045079489</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.659108857611</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="T19" t="n">
-        <v>1870.354385301354</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="U19" t="n">
-        <v>1587.590484582684</v>
+        <v>1900.345144360819</v>
       </c>
       <c r="V19" t="n">
-        <v>1587.590484582684</v>
+        <v>1626.459399300341</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.590484582684</v>
+        <v>1347.389734809215</v>
       </c>
       <c r="X19" t="n">
-        <v>1349.246622442367</v>
+        <v>1109.045872668899</v>
       </c>
       <c r="Y19" t="n">
-        <v>1124.510923831132</v>
+        <v>884.3101740576634</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1299.8600481828</v>
+        <v>1157.689186005809</v>
       </c>
       <c r="C20" t="n">
-        <v>1299.8600481828</v>
+        <v>747.5645953190793</v>
       </c>
       <c r="D20" t="n">
-        <v>895.3961182758603</v>
+        <v>747.5645953190793</v>
       </c>
       <c r="E20" t="n">
-        <v>481.055902792757</v>
+        <v>747.5645953190793</v>
       </c>
       <c r="F20" t="n">
-        <v>76.05204556105591</v>
+        <v>747.5645953190793</v>
       </c>
       <c r="G20" t="n">
-        <v>76.05204556105591</v>
+        <v>340.2360102722438</v>
       </c>
       <c r="H20" t="n">
-        <v>76.05204556105591</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I20" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J20" t="n">
-        <v>87.50545921186747</v>
+        <v>414.2812860995966</v>
       </c>
       <c r="K20" t="n">
-        <v>173.7642680911461</v>
+        <v>500.5400949788752</v>
       </c>
       <c r="L20" t="n">
-        <v>295.7211615839965</v>
+        <v>622.4969884717257</v>
       </c>
       <c r="M20" t="n">
-        <v>836.0406502411702</v>
+        <v>771.0236532250346</v>
       </c>
       <c r="N20" t="n">
-        <v>1376.360138898344</v>
+        <v>923.8222270873267</v>
       </c>
       <c r="O20" t="n">
-        <v>1916.679627555518</v>
+        <v>1062.704806722838</v>
       </c>
       <c r="P20" t="n">
-        <v>2021.239790764509</v>
+        <v>1587.073398994776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2080.250156447968</v>
+        <v>2056.378237828688</v>
       </c>
       <c r="R20" t="n">
-        <v>2183.109045079489</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="S20" t="n">
-        <v>2183.109045079489</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="T20" t="n">
-        <v>1967.029743662953</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="U20" t="n">
-        <v>1710.081227847289</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="V20" t="n">
-        <v>1710.081227847289</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="W20" t="n">
-        <v>1710.081227847289</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="X20" t="n">
-        <v>1710.081227847289</v>
+        <v>1968.847038722209</v>
       </c>
       <c r="Y20" t="n">
-        <v>1710.081227847289</v>
+        <v>1567.910365670299</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>322.3776354892559</v>
       </c>
       <c r="F21" t="n">
-        <v>213.4177556717604</v>
+        <v>213.4177556717605</v>
       </c>
       <c r="G21" t="n">
         <v>107.1765480069175</v>
@@ -5828,28 +5828,28 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I21" t="n">
-        <v>43.66218090158979</v>
+        <v>48.5980400674669</v>
       </c>
       <c r="J21" t="n">
-        <v>305.8221130637171</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K21" t="n">
-        <v>846.1416017208907</v>
+        <v>851.0774608867679</v>
       </c>
       <c r="L21" t="n">
-        <v>1386.461090378064</v>
+        <v>954.8958351596682</v>
       </c>
       <c r="M21" t="n">
-        <v>1515.451767967945</v>
+        <v>1083.886512749549</v>
       </c>
       <c r="N21" t="n">
-        <v>1653.691946160766</v>
+        <v>1222.12669094237</v>
       </c>
       <c r="O21" t="n">
-        <v>1771.155684740737</v>
+        <v>1339.590429522341</v>
       </c>
       <c r="P21" t="n">
-        <v>1857.600798908757</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q21" t="n">
         <v>1969.310551587083</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.5038581687246</v>
+        <v>375.6663684715538</v>
       </c>
       <c r="C22" t="n">
-        <v>534.4104857304411</v>
+        <v>204.5729960332703</v>
       </c>
       <c r="D22" t="n">
-        <v>374.9158410533511</v>
+        <v>204.5729960332703</v>
       </c>
       <c r="E22" t="n">
-        <v>374.9158410533511</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="F22" t="n">
-        <v>210.2847151639424</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="G22" t="n">
         <v>43.66218090158979</v>
@@ -5910,52 +5910,52 @@
         <v>43.66218090158979</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2508563378978</v>
+        <v>101.2508563378979</v>
       </c>
       <c r="K22" t="n">
-        <v>327.2971136830527</v>
+        <v>327.2971136830529</v>
       </c>
       <c r="L22" t="n">
-        <v>678.6818293819854</v>
+        <v>678.6818293819856</v>
       </c>
       <c r="M22" t="n">
         <v>1064.406748771458</v>
       </c>
       <c r="N22" t="n">
-        <v>1439.41277039439</v>
+        <v>1439.412770394391</v>
       </c>
       <c r="O22" t="n">
-        <v>1785.952067557884</v>
+        <v>1785.952067557885</v>
       </c>
       <c r="P22" t="n">
-        <v>2066.052800429037</v>
+        <v>2066.052800429038</v>
       </c>
       <c r="Q22" t="n">
-        <v>2183.109045079489</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="R22" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.10904507949</v>
       </c>
       <c r="S22" t="n">
-        <v>1950.617115920886</v>
+        <v>2007.659108857612</v>
       </c>
       <c r="T22" t="n">
-        <v>1713.751037822032</v>
+        <v>1862.164945887424</v>
       </c>
       <c r="U22" t="n">
-        <v>1430.987137103362</v>
+        <v>1579.401045168754</v>
       </c>
       <c r="V22" t="n">
-        <v>1157.101392042884</v>
+        <v>1305.515300108276</v>
       </c>
       <c r="W22" t="n">
-        <v>878.0317275517584</v>
+        <v>1026.44563561715</v>
       </c>
       <c r="X22" t="n">
-        <v>878.0317275517584</v>
+        <v>788.1017734768335</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.0317275517584</v>
+        <v>563.3660748655982</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2069.111859096281</v>
+        <v>2101.354249798067</v>
       </c>
       <c r="C23" t="n">
-        <v>1658.987268409551</v>
+        <v>1691.229659111337</v>
       </c>
       <c r="D23" t="n">
-        <v>1658.987268409551</v>
+        <v>1286.765729204398</v>
       </c>
       <c r="E23" t="n">
-        <v>1244.647052926448</v>
+        <v>1212.257188266982</v>
       </c>
       <c r="F23" t="n">
-        <v>823.6166408801353</v>
+        <v>791.2267762206691</v>
       </c>
       <c r="G23" t="n">
-        <v>416.2880558332997</v>
+        <v>383.8981911738335</v>
       </c>
       <c r="H23" t="n">
-        <v>119.7142264626457</v>
+        <v>87.32436180317957</v>
       </c>
       <c r="I23" t="n">
-        <v>87.32436180317958</v>
+        <v>87.32436180317957</v>
       </c>
       <c r="J23" t="n">
         <v>131.1676401134573</v>
       </c>
       <c r="K23" t="n">
-        <v>843.8309758782603</v>
+        <v>843.8309758782602</v>
       </c>
       <c r="L23" t="n">
         <v>1772.909813265565</v>
@@ -6001,40 +6001,40 @@
         <v>1921.436478018874</v>
       </c>
       <c r="N23" t="n">
-        <v>2919.399236368838</v>
+        <v>2919.399236368837</v>
       </c>
       <c r="O23" t="n">
-        <v>3580.777993699302</v>
+        <v>3794.170550290979</v>
       </c>
       <c r="P23" t="n">
-        <v>4307.20772447552</v>
+        <v>4307.207724475519</v>
       </c>
       <c r="Q23" t="n">
-        <v>4366.218090158979</v>
+        <v>4366.218090158978</v>
       </c>
       <c r="R23" t="n">
-        <v>4366.218090158979</v>
+        <v>4366.218090158978</v>
       </c>
       <c r="S23" t="n">
         <v>4262.832657290402</v>
       </c>
       <c r="T23" t="n">
-        <v>4046.753355873866</v>
+        <v>4046.753355873865</v>
       </c>
       <c r="U23" t="n">
-        <v>3789.804840058203</v>
+        <v>4046.753355873865</v>
       </c>
       <c r="V23" t="n">
-        <v>3439.967285394684</v>
+        <v>3696.915801210346</v>
       </c>
       <c r="W23" t="n">
-        <v>3056.206984529852</v>
+        <v>3313.155500345514</v>
       </c>
       <c r="X23" t="n">
-        <v>2655.563586698805</v>
+        <v>2912.512102514467</v>
       </c>
       <c r="Y23" t="n">
-        <v>2254.626913646895</v>
+        <v>2511.575429462557</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>150.8387289085073</v>
       </c>
       <c r="H24" t="n">
-        <v>87.32436180317958</v>
+        <v>87.32436180317957</v>
       </c>
       <c r="I24" t="n">
-        <v>87.32436180317958</v>
+        <v>92.26022096905668</v>
       </c>
       <c r="J24" t="n">
-        <v>105.8158899906736</v>
+        <v>354.420153131184</v>
       </c>
       <c r="K24" t="n">
-        <v>169.0735609639713</v>
+        <v>928.7516053265495</v>
       </c>
       <c r="L24" t="n">
-        <v>272.8919352368716</v>
+        <v>1032.56997959945</v>
       </c>
       <c r="M24" t="n">
-        <v>1301.848334422352</v>
+        <v>1161.56065718933</v>
       </c>
       <c r="N24" t="n">
-        <v>1846.62690252225</v>
+        <v>1299.800835382152</v>
       </c>
       <c r="O24" t="n">
-        <v>1964.090641102221</v>
+        <v>1417.264573962122</v>
       </c>
       <c r="P24" t="n">
-        <v>2050.535755270241</v>
+        <v>1569.433580504022</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.104750251118</v>
+        <v>2012.972732488672</v>
       </c>
       <c r="R24" t="n">
         <v>2088.104750251118</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1151.566770776961</v>
+        <v>786.1704711850256</v>
       </c>
       <c r="C25" t="n">
-        <v>980.4733983386775</v>
+        <v>786.1704711850256</v>
       </c>
       <c r="D25" t="n">
-        <v>820.9787536615875</v>
+        <v>626.6758265079357</v>
       </c>
       <c r="E25" t="n">
-        <v>660.0679385299069</v>
+        <v>465.7650113762551</v>
       </c>
       <c r="F25" t="n">
-        <v>495.4368126404981</v>
+        <v>301.1338854868464</v>
       </c>
       <c r="G25" t="n">
-        <v>328.8142783781456</v>
+        <v>231.3495991591985</v>
       </c>
       <c r="H25" t="n">
-        <v>184.7890410221267</v>
+        <v>87.32436180317957</v>
       </c>
       <c r="I25" t="n">
-        <v>87.32436180317958</v>
+        <v>87.32436180317957</v>
       </c>
       <c r="J25" t="n">
-        <v>144.9130372394876</v>
+        <v>144.9130372394875</v>
       </c>
       <c r="K25" t="n">
         <v>370.9592945846425</v>
@@ -6174,25 +6174,25 @@
         <v>2226.771225981079</v>
       </c>
       <c r="S25" t="n">
-        <v>2051.321289759202</v>
+        <v>2226.771225981079</v>
       </c>
       <c r="T25" t="n">
-        <v>1814.455211660348</v>
+        <v>1989.905147882225</v>
       </c>
       <c r="U25" t="n">
-        <v>1814.455211660348</v>
+        <v>1989.905147882225</v>
       </c>
       <c r="V25" t="n">
-        <v>1814.455211660348</v>
+        <v>1716.019402821747</v>
       </c>
       <c r="W25" t="n">
-        <v>1564.002175782241</v>
+        <v>1436.949738330622</v>
       </c>
       <c r="X25" t="n">
-        <v>1564.002175782241</v>
+        <v>1198.605876190305</v>
       </c>
       <c r="Y25" t="n">
-        <v>1339.266477171005</v>
+        <v>973.8701775790699</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>913.3197683624594</v>
+        <v>1695.518424296662</v>
       </c>
       <c r="C26" t="n">
-        <v>913.3197683624594</v>
+        <v>1285.393833609933</v>
       </c>
       <c r="D26" t="n">
-        <v>913.3197683624594</v>
+        <v>880.9299037029932</v>
       </c>
       <c r="E26" t="n">
-        <v>498.9795528793561</v>
+        <v>466.58968821989</v>
       </c>
       <c r="F26" t="n">
-        <v>77.94914083304366</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="G26" t="n">
-        <v>77.94914083304366</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="H26" t="n">
-        <v>77.94914083304366</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="I26" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="J26" t="n">
         <v>89.40255448385523</v>
       </c>
       <c r="K26" t="n">
-        <v>653.1985971318772</v>
+        <v>653.198597131877</v>
       </c>
       <c r="L26" t="n">
-        <v>775.1554906247277</v>
+        <v>775.1554906247275</v>
       </c>
       <c r="M26" t="n">
-        <v>1338.95153327275</v>
+        <v>986.8011944903815</v>
       </c>
       <c r="N26" t="n">
-        <v>1902.747575920772</v>
+        <v>1550.597237138403</v>
       </c>
       <c r="O26" t="n">
-        <v>2114.393279786426</v>
+        <v>2114.393279786425</v>
       </c>
       <c r="P26" t="n">
-        <v>2218.953442995417</v>
+        <v>2218.953442995416</v>
       </c>
       <c r="Q26" t="n">
-        <v>2277.963808678877</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="R26" t="n">
-        <v>2277.963808678877</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="S26" t="n">
-        <v>2174.5783758103</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="T26" t="n">
-        <v>1958.499074393763</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="U26" t="n">
-        <v>1701.5505585781</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="V26" t="n">
-        <v>1701.5505585781</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="W26" t="n">
-        <v>1701.5505585781</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="X26" t="n">
-        <v>1300.907160747053</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="Y26" t="n">
-        <v>913.3197683624594</v>
+        <v>1877.027135626966</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>109.0736432789052</v>
       </c>
       <c r="H27" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="I27" t="n">
-        <v>45.55927617357754</v>
+        <v>50.49513533945463</v>
       </c>
       <c r="J27" t="n">
-        <v>307.7192083357048</v>
+        <v>312.6550675015819</v>
       </c>
       <c r="K27" t="n">
-        <v>550.491501353271</v>
+        <v>876.4511101496037</v>
       </c>
       <c r="L27" t="n">
-        <v>654.3098756261713</v>
+        <v>980.269484422504</v>
       </c>
       <c r="M27" t="n">
-        <v>783.3005532160516</v>
+        <v>1109.260162012384</v>
       </c>
       <c r="N27" t="n">
-        <v>921.5407314088734</v>
+        <v>1247.500340205206</v>
       </c>
       <c r="O27" t="n">
-        <v>1039.004469988844</v>
+        <v>1364.964078785176</v>
       </c>
       <c r="P27" t="n">
-        <v>1602.800512636866</v>
+        <v>1527.66849487442</v>
       </c>
       <c r="Q27" t="n">
-        <v>2046.339664621516</v>
+        <v>1971.20764685907</v>
       </c>
       <c r="R27" t="n">
         <v>2046.339664621516</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1012.337005928412</v>
+        <v>845.7144716660591</v>
       </c>
       <c r="C28" t="n">
-        <v>841.2436334901283</v>
+        <v>674.6210992277756</v>
       </c>
       <c r="D28" t="n">
-        <v>681.7489888130383</v>
+        <v>515.1264545506857</v>
       </c>
       <c r="E28" t="n">
-        <v>520.8381736813578</v>
+        <v>354.2156394190052</v>
       </c>
       <c r="F28" t="n">
-        <v>356.2070477919491</v>
+        <v>189.5845135295964</v>
       </c>
       <c r="G28" t="n">
         <v>189.5845135295964</v>
       </c>
       <c r="H28" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="I28" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="J28" t="n">
         <v>103.1479516098855</v>
@@ -6408,28 +6408,28 @@
         <v>2185.006140351477</v>
       </c>
       <c r="R28" t="n">
-        <v>2127.964147414752</v>
+        <v>2185.006140351477</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.964147414752</v>
+        <v>2009.556204129599</v>
       </c>
       <c r="T28" t="n">
-        <v>1942.185937565134</v>
+        <v>1772.690126030745</v>
       </c>
       <c r="U28" t="n">
-        <v>1942.185937565134</v>
+        <v>1772.690126030745</v>
       </c>
       <c r="V28" t="n">
-        <v>1942.185937565134</v>
+        <v>1498.804380970267</v>
       </c>
       <c r="W28" t="n">
-        <v>1663.116273074008</v>
+        <v>1496.493738811655</v>
       </c>
       <c r="X28" t="n">
-        <v>1424.772410933691</v>
+        <v>1258.149876671339</v>
       </c>
       <c r="Y28" t="n">
-        <v>1200.036712322456</v>
+        <v>1033.414178060103</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>910.4668817158637</v>
+        <v>1867.742629014386</v>
       </c>
       <c r="C29" t="n">
-        <v>910.4668817158637</v>
+        <v>1457.618038327656</v>
       </c>
       <c r="D29" t="n">
-        <v>873.9182732667255</v>
+        <v>1053.154108420717</v>
       </c>
       <c r="E29" t="n">
-        <v>873.9182732667255</v>
+        <v>638.8138929376137</v>
       </c>
       <c r="F29" t="n">
-        <v>452.8878612204131</v>
+        <v>217.7834808913012</v>
       </c>
       <c r="G29" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="H29" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="I29" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="J29" t="n">
         <v>416.1783813715844</v>
       </c>
       <c r="K29" t="n">
-        <v>502.437190250863</v>
+        <v>979.9744240196061</v>
       </c>
       <c r="L29" t="n">
-        <v>624.3940837437134</v>
+        <v>1263.187992749583</v>
       </c>
       <c r="M29" t="n">
-        <v>772.9207484970224</v>
+        <v>1411.714657502892</v>
       </c>
       <c r="N29" t="n">
-        <v>1091.361357699373</v>
+        <v>1975.510700150914</v>
       </c>
       <c r="O29" t="n">
-        <v>1655.157400347395</v>
+        <v>2114.393279786425</v>
       </c>
       <c r="P29" t="n">
-        <v>2218.953442995417</v>
+        <v>2218.953442995416</v>
       </c>
       <c r="Q29" t="n">
-        <v>2277.963808678877</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="R29" t="n">
-        <v>2277.963808678877</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="S29" t="n">
-        <v>2277.963808678877</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="T29" t="n">
-        <v>2061.88450726234</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="U29" t="n">
-        <v>2061.88450726234</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="V29" t="n">
-        <v>1712.046952598821</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="W29" t="n">
-        <v>1712.046952598821</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.403554767774</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="Y29" t="n">
-        <v>910.4668817158637</v>
+        <v>2277.963808678876</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>109.0736432789052</v>
       </c>
       <c r="H30" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="I30" t="n">
-        <v>45.55927617357754</v>
+        <v>50.49513533945463</v>
       </c>
       <c r="J30" t="n">
-        <v>64.05080436107154</v>
+        <v>312.6550675015819</v>
       </c>
       <c r="K30" t="n">
-        <v>127.3084753343692</v>
+        <v>876.4511101496037</v>
       </c>
       <c r="L30" t="n">
-        <v>538.8157107994473</v>
+        <v>980.269484422504</v>
       </c>
       <c r="M30" t="n">
-        <v>667.8063883893276</v>
+        <v>1109.260162012384</v>
       </c>
       <c r="N30" t="n">
-        <v>806.0465665821494</v>
+        <v>1247.500340205206</v>
       </c>
       <c r="O30" t="n">
-        <v>1369.842609230171</v>
+        <v>1364.964078785176</v>
       </c>
       <c r="P30" t="n">
-        <v>1933.638651878193</v>
+        <v>1527.66849487442</v>
       </c>
       <c r="Q30" t="n">
         <v>1971.20764685907</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1109.801685147359</v>
+        <v>1012.337005928412</v>
       </c>
       <c r="C31" t="n">
-        <v>938.7083127090755</v>
+        <v>841.2436334901283</v>
       </c>
       <c r="D31" t="n">
-        <v>779.2136680319854</v>
+        <v>681.7489888130383</v>
       </c>
       <c r="E31" t="n">
-        <v>618.3028529003049</v>
+        <v>520.8381736813578</v>
       </c>
       <c r="F31" t="n">
-        <v>453.6717270108961</v>
+        <v>356.2070477919491</v>
       </c>
       <c r="G31" t="n">
-        <v>287.0491927485435</v>
+        <v>189.5845135295964</v>
       </c>
       <c r="H31" t="n">
-        <v>143.0239553925246</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="I31" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="J31" t="n">
         <v>103.1479516098855</v>
@@ -6648,25 +6648,25 @@
         <v>2185.006140351477</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.006140351477</v>
+        <v>2009.556204129599</v>
       </c>
       <c r="T31" t="n">
-        <v>2185.006140351477</v>
+        <v>1772.690126030745</v>
       </c>
       <c r="U31" t="n">
-        <v>2185.006140351477</v>
+        <v>1772.690126030745</v>
       </c>
       <c r="V31" t="n">
-        <v>2039.650616784081</v>
+        <v>1663.116273074008</v>
       </c>
       <c r="W31" t="n">
-        <v>1760.580952292955</v>
+        <v>1663.116273074008</v>
       </c>
       <c r="X31" t="n">
-        <v>1522.237090152639</v>
+        <v>1424.772410933691</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.501391541403</v>
+        <v>1200.036712322456</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1584.832318120483</v>
+        <v>1580.616693324109</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.832318120483</v>
+        <v>1170.49210263738</v>
       </c>
       <c r="D32" t="n">
-        <v>1584.832318120483</v>
+        <v>1170.49210263738</v>
       </c>
       <c r="E32" t="n">
         <v>1170.49210263738</v>
@@ -6694,58 +6694,58 @@
         <v>342.1331055442315</v>
       </c>
       <c r="H32" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="I32" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="J32" t="n">
-        <v>89.40255448385523</v>
+        <v>416.1783813715844</v>
       </c>
       <c r="K32" t="n">
-        <v>653.1985971318772</v>
+        <v>979.9744240196061</v>
       </c>
       <c r="L32" t="n">
-        <v>1216.994639779899</v>
+        <v>1543.770466667628</v>
       </c>
       <c r="M32" t="n">
-        <v>1780.790682427921</v>
+        <v>1822.712126288622</v>
       </c>
       <c r="N32" t="n">
-        <v>1933.589256290213</v>
+        <v>1975.510700150914</v>
       </c>
       <c r="O32" t="n">
-        <v>2072.471835925724</v>
+        <v>2114.393279786425</v>
       </c>
       <c r="P32" t="n">
-        <v>2177.031999134716</v>
+        <v>2218.953442995416</v>
       </c>
       <c r="Q32" t="n">
-        <v>2236.042364818175</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="R32" t="n">
-        <v>2277.963808678877</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="S32" t="n">
-        <v>2277.963808678877</v>
+        <v>2277.963808678876</v>
       </c>
       <c r="T32" t="n">
-        <v>2061.88450726234</v>
+        <v>2061.884507262339</v>
       </c>
       <c r="U32" t="n">
-        <v>2061.88450726234</v>
+        <v>2061.884507262339</v>
       </c>
       <c r="V32" t="n">
-        <v>2061.88450726234</v>
+        <v>2061.884507262339</v>
       </c>
       <c r="W32" t="n">
-        <v>2061.88450726234</v>
+        <v>1981.553366376019</v>
       </c>
       <c r="X32" t="n">
-        <v>2061.88450726234</v>
+        <v>1981.553366376019</v>
       </c>
       <c r="Y32" t="n">
-        <v>1660.94783421043</v>
+        <v>1580.616693324109</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>109.0736432789052</v>
       </c>
       <c r="H33" t="n">
-        <v>45.55927617357754</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="I33" t="n">
-        <v>45.55927617357754</v>
+        <v>50.49513533945463</v>
       </c>
       <c r="J33" t="n">
-        <v>64.05080436107154</v>
+        <v>312.6550675015819</v>
       </c>
       <c r="K33" t="n">
-        <v>127.3084753343692</v>
+        <v>876.4511101496037</v>
       </c>
       <c r="L33" t="n">
-        <v>231.1268496072695</v>
+        <v>980.269484422504</v>
       </c>
       <c r="M33" t="n">
-        <v>794.9228922552916</v>
+        <v>1109.260162012384</v>
       </c>
       <c r="N33" t="n">
-        <v>1358.718934903314</v>
+        <v>1247.500340205206</v>
       </c>
       <c r="O33" t="n">
-        <v>1922.325555472619</v>
+        <v>1364.964078785176</v>
       </c>
       <c r="P33" t="n">
-        <v>2008.770669640639</v>
+        <v>1527.66849487442</v>
       </c>
       <c r="Q33" t="n">
-        <v>2046.339664621516</v>
+        <v>1971.20764685907</v>
       </c>
       <c r="R33" t="n">
         <v>2046.339664621516</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1202.759353474759</v>
+        <v>560.0772936753534</v>
       </c>
       <c r="C34" t="n">
-        <v>1031.665981036475</v>
+        <v>388.9839212370699</v>
       </c>
       <c r="D34" t="n">
-        <v>872.1713363593854</v>
+        <v>229.4892765599799</v>
       </c>
       <c r="E34" t="n">
-        <v>711.2605212277048</v>
+        <v>189.5845135295964</v>
       </c>
       <c r="F34" t="n">
-        <v>546.629395338296</v>
+        <v>189.5845135295964</v>
       </c>
       <c r="G34" t="n">
-        <v>380.0068610759434</v>
+        <v>189.5845135295964</v>
       </c>
       <c r="H34" t="n">
-        <v>235.9816237199245</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="I34" t="n">
-        <v>138.5169445009774</v>
+        <v>45.55927617357752</v>
       </c>
       <c r="J34" t="n">
-        <v>196.1056199372854</v>
+        <v>103.1479516098855</v>
       </c>
       <c r="K34" t="n">
-        <v>422.1518772824404</v>
+        <v>329.1942089550404</v>
       </c>
       <c r="L34" t="n">
-        <v>773.5365929813729</v>
+        <v>680.578924653973</v>
       </c>
       <c r="M34" t="n">
-        <v>1159.261512370846</v>
+        <v>1066.303844043446</v>
       </c>
       <c r="N34" t="n">
-        <v>1534.267533993778</v>
+        <v>1441.309865666378</v>
       </c>
       <c r="O34" t="n">
-        <v>1880.806831157272</v>
+        <v>1787.849162829872</v>
       </c>
       <c r="P34" t="n">
-        <v>2160.907564028425</v>
+        <v>2067.949895701025</v>
       </c>
       <c r="Q34" t="n">
-        <v>2277.963808678877</v>
+        <v>2185.006140351477</v>
       </c>
       <c r="R34" t="n">
-        <v>2220.921815742151</v>
+        <v>2185.006140351477</v>
       </c>
       <c r="S34" t="n">
-        <v>2220.921815742151</v>
+        <v>2009.556204129599</v>
       </c>
       <c r="T34" t="n">
-        <v>2220.921815742151</v>
+        <v>1772.690126030745</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.157915023481</v>
+        <v>1489.926225312075</v>
       </c>
       <c r="V34" t="n">
-        <v>1938.157915023481</v>
+        <v>1489.926225312075</v>
       </c>
       <c r="W34" t="n">
-        <v>1853.538620620355</v>
+        <v>1210.85656082095</v>
       </c>
       <c r="X34" t="n">
-        <v>1615.194758480039</v>
+        <v>972.5126986806331</v>
       </c>
       <c r="Y34" t="n">
-        <v>1390.459059868803</v>
+        <v>747.7770000693978</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1103.585576466367</v>
+        <v>1690.825323384781</v>
       </c>
       <c r="C35" t="n">
-        <v>693.4609857796373</v>
+        <v>1690.825323384781</v>
       </c>
       <c r="D35" t="n">
-        <v>693.4609857796373</v>
+        <v>1286.361393477841</v>
       </c>
       <c r="E35" t="n">
-        <v>497.0824576073684</v>
+        <v>872.0211779947379</v>
       </c>
       <c r="F35" t="n">
-        <v>76.05204556105591</v>
+        <v>450.9907659484253</v>
       </c>
       <c r="G35" t="n">
-        <v>76.05204556105591</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="H35" t="n">
-        <v>76.05204556105591</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I35" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J35" t="n">
-        <v>87.50545921186749</v>
+        <v>87.50545921186747</v>
       </c>
       <c r="K35" t="n">
-        <v>173.7642680911461</v>
+        <v>627.824947869041</v>
       </c>
       <c r="L35" t="n">
-        <v>714.0837567483197</v>
+        <v>1168.144436526215</v>
       </c>
       <c r="M35" t="n">
-        <v>862.6104215016287</v>
+        <v>1708.463925183388</v>
       </c>
       <c r="N35" t="n">
-        <v>1402.929910158802</v>
+        <v>1880.655936551527</v>
       </c>
       <c r="O35" t="n">
-        <v>1583.779190738856</v>
+        <v>2019.538516187038</v>
       </c>
       <c r="P35" t="n">
         <v>2124.09867939603</v>
       </c>
       <c r="Q35" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="R35" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.723612210913</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="T35" t="n">
-        <v>1863.644310794376</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="U35" t="n">
-        <v>1863.644310794376</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="V35" t="n">
-        <v>1513.806756130857</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="W35" t="n">
-        <v>1513.806756130857</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="X35" t="n">
-        <v>1513.806756130857</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="Y35" t="n">
-        <v>1513.806756130857</v>
+        <v>2101.04650304927</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>322.3776354892559</v>
       </c>
       <c r="F36" t="n">
-        <v>213.4177556717605</v>
+        <v>213.4177556717604</v>
       </c>
       <c r="G36" t="n">
         <v>107.1765480069175</v>
@@ -7016,28 +7016,28 @@
         <v>43.66218090158979</v>
       </c>
       <c r="J36" t="n">
-        <v>62.1537090890838</v>
+        <v>305.8221130637171</v>
       </c>
       <c r="K36" t="n">
-        <v>125.4113800623815</v>
+        <v>369.0797840370147</v>
       </c>
       <c r="L36" t="n">
-        <v>229.2297543352818</v>
+        <v>909.3992726941883</v>
       </c>
       <c r="M36" t="n">
-        <v>769.5492429924554</v>
+        <v>1038.389950284069</v>
       </c>
       <c r="N36" t="n">
-        <v>1309.868731649629</v>
+        <v>1176.63012847689</v>
       </c>
       <c r="O36" t="n">
-        <v>1850.188220306803</v>
+        <v>1294.093867056861</v>
       </c>
       <c r="P36" t="n">
-        <v>1936.633334474823</v>
+        <v>1834.413355714034</v>
       </c>
       <c r="Q36" t="n">
-        <v>2044.442569349528</v>
+        <v>1969.310551587083</v>
       </c>
       <c r="R36" t="n">
         <v>2044.442569349528</v>
@@ -7074,16 +7074,16 @@
         <v>1010.439910656424</v>
       </c>
       <c r="C37" t="n">
-        <v>839.3465382181407</v>
+        <v>839.3465382181405</v>
       </c>
       <c r="D37" t="n">
-        <v>679.8518935410507</v>
+        <v>679.8518935410505</v>
       </c>
       <c r="E37" t="n">
-        <v>518.9410784093701</v>
+        <v>518.94107840937</v>
       </c>
       <c r="F37" t="n">
-        <v>354.3099525199614</v>
+        <v>354.3099525199613</v>
       </c>
       <c r="G37" t="n">
         <v>187.6874182576087</v>
@@ -7113,34 +7113,34 @@
         <v>1785.952067557884</v>
       </c>
       <c r="P37" t="n">
-        <v>2066.052800429038</v>
+        <v>2066.052800429037</v>
       </c>
       <c r="Q37" t="n">
-        <v>2183.10904507949</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="R37" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S37" t="n">
-        <v>2126.067052142764</v>
+        <v>2007.659108857611</v>
       </c>
       <c r="T37" t="n">
-        <v>2126.067052142764</v>
+        <v>1770.793030758758</v>
       </c>
       <c r="U37" t="n">
-        <v>1940.288842293146</v>
+        <v>1488.029130040087</v>
       </c>
       <c r="V37" t="n">
-        <v>1940.288842293146</v>
+        <v>1488.029130040087</v>
       </c>
       <c r="W37" t="n">
-        <v>1661.219177802021</v>
+        <v>1488.029130040087</v>
       </c>
       <c r="X37" t="n">
-        <v>1422.875315661704</v>
+        <v>1249.685267899771</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.139617050469</v>
+        <v>1198.139617050468</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.2664223185562</v>
+        <v>1453.423131129886</v>
       </c>
       <c r="C38" t="n">
-        <v>761.2664223185562</v>
+        <v>1043.298540443156</v>
       </c>
       <c r="D38" t="n">
-        <v>761.2664223185562</v>
+        <v>1043.298540443156</v>
       </c>
       <c r="E38" t="n">
-        <v>761.2664223185562</v>
+        <v>628.9583249600528</v>
       </c>
       <c r="F38" t="n">
-        <v>340.2360102722438</v>
+        <v>207.9279129137403</v>
       </c>
       <c r="G38" t="n">
-        <v>340.2360102722438</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="H38" t="n">
         <v>43.66218090158979</v>
@@ -7174,52 +7174,52 @@
         <v>43.66218090158979</v>
       </c>
       <c r="J38" t="n">
-        <v>87.50545921186747</v>
+        <v>414.2812860995966</v>
       </c>
       <c r="K38" t="n">
-        <v>173.7642680911461</v>
+        <v>954.6007747567702</v>
       </c>
       <c r="L38" t="n">
-        <v>295.7211615839965</v>
+        <v>1076.557668249621</v>
       </c>
       <c r="M38" t="n">
-        <v>812.1687316218901</v>
+        <v>1225.08433300293</v>
       </c>
       <c r="N38" t="n">
-        <v>1352.488220279064</v>
+        <v>1377.882906865222</v>
       </c>
       <c r="O38" t="n">
-        <v>1892.807708936237</v>
+        <v>1516.765486500733</v>
       </c>
       <c r="P38" t="n">
-        <v>1997.367872145229</v>
+        <v>1713.804206245577</v>
       </c>
       <c r="Q38" t="n">
-        <v>2056.378237828688</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="R38" t="n">
         <v>2183.109045079489</v>
       </c>
       <c r="S38" t="n">
-        <v>2183.109045079489</v>
+        <v>2079.723612210912</v>
       </c>
       <c r="T38" t="n">
-        <v>2183.109045079489</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="U38" t="n">
-        <v>2183.109045079489</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="V38" t="n">
-        <v>1833.27149041597</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="W38" t="n">
-        <v>1562.846493201514</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="X38" t="n">
-        <v>1162.203095370466</v>
+        <v>1863.644310794376</v>
       </c>
       <c r="Y38" t="n">
-        <v>761.2664223185562</v>
+        <v>1863.644310794376</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>43.66218090158979</v>
       </c>
       <c r="I39" t="n">
-        <v>43.66218090158979</v>
+        <v>48.59804006746689</v>
       </c>
       <c r="J39" t="n">
-        <v>62.15370908908379</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K39" t="n">
-        <v>125.4113800623815</v>
+        <v>851.0774608867678</v>
       </c>
       <c r="L39" t="n">
-        <v>229.2297543352818</v>
+        <v>954.8958351596681</v>
       </c>
       <c r="M39" t="n">
-        <v>769.5492429924554</v>
+        <v>1083.886512749548</v>
       </c>
       <c r="N39" t="n">
-        <v>1309.868731649629</v>
+        <v>1222.12669094237</v>
       </c>
       <c r="O39" t="n">
-        <v>1850.188220306803</v>
+        <v>1339.59042952234</v>
       </c>
       <c r="P39" t="n">
-        <v>2006.873574368651</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q39" t="n">
-        <v>2044.442569349528</v>
+        <v>1969.310551587083</v>
       </c>
       <c r="R39" t="n">
         <v>2044.442569349528</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.7493943828895</v>
+        <v>471.9941597369319</v>
       </c>
       <c r="C40" t="n">
-        <v>307.7493943828895</v>
+        <v>471.9941597369319</v>
       </c>
       <c r="D40" t="n">
-        <v>307.7493943828895</v>
+        <v>369.2041219226791</v>
       </c>
       <c r="E40" t="n">
-        <v>307.7493943828895</v>
+        <v>208.2933067909985</v>
       </c>
       <c r="F40" t="n">
-        <v>307.7493943828895</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="G40" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="H40" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I40" t="n">
         <v>43.66218090158979</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2508563378976</v>
+        <v>101.2508563378977</v>
       </c>
       <c r="K40" t="n">
-        <v>327.2971136830525</v>
+        <v>327.2971136830527</v>
       </c>
       <c r="L40" t="n">
         <v>678.6818293819852</v>
@@ -7356,28 +7356,28 @@
         <v>2183.109045079489</v>
       </c>
       <c r="R40" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S40" t="n">
-        <v>1950.617115920886</v>
+        <v>2007.659108857611</v>
       </c>
       <c r="T40" t="n">
-        <v>1713.751037822032</v>
+        <v>1770.793030758758</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.987137103362</v>
+        <v>1488.029130040087</v>
       </c>
       <c r="V40" t="n">
-        <v>1157.101392042884</v>
+        <v>1214.143384979609</v>
       </c>
       <c r="W40" t="n">
-        <v>878.0317275517584</v>
+        <v>935.0737204884838</v>
       </c>
       <c r="X40" t="n">
-        <v>639.6878654114419</v>
+        <v>696.7298583481672</v>
       </c>
       <c r="Y40" t="n">
-        <v>414.9521668002066</v>
+        <v>471.9941597369319</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>868.1269870714229</v>
+        <v>861.1153566351552</v>
       </c>
       <c r="C41" t="n">
-        <v>458.0023963846931</v>
+        <v>450.9907659484253</v>
       </c>
       <c r="D41" t="n">
-        <v>458.0023963846931</v>
+        <v>450.9907659484253</v>
       </c>
       <c r="E41" t="n">
-        <v>43.66218090158979</v>
+        <v>450.9907659484253</v>
       </c>
       <c r="F41" t="n">
-        <v>43.66218090158979</v>
+        <v>450.9907659484253</v>
       </c>
       <c r="G41" t="n">
         <v>43.66218090158979</v>
@@ -7414,49 +7414,49 @@
         <v>87.50545921186747</v>
       </c>
       <c r="K41" t="n">
-        <v>173.7642680911461</v>
+        <v>627.824947869041</v>
       </c>
       <c r="L41" t="n">
-        <v>714.0837567483196</v>
+        <v>1168.144436526215</v>
       </c>
       <c r="M41" t="n">
-        <v>1254.403245405493</v>
+        <v>1316.671101279524</v>
       </c>
       <c r="N41" t="n">
-        <v>1794.722734062667</v>
+        <v>1469.469675141816</v>
       </c>
       <c r="O41" t="n">
-        <v>2019.538516187038</v>
+        <v>2009.789163798989</v>
       </c>
       <c r="P41" t="n">
-        <v>2124.09867939603</v>
+        <v>2114.349327007981</v>
       </c>
       <c r="Q41" t="n">
-        <v>2183.109045079489</v>
+        <v>2173.35969269144</v>
       </c>
       <c r="R41" t="n">
         <v>2183.109045079489</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.213538631632</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="T41" t="n">
-        <v>1885.134237215095</v>
+        <v>2022.110764015074</v>
       </c>
       <c r="U41" t="n">
-        <v>1628.185721399432</v>
+        <v>2022.110764015074</v>
       </c>
       <c r="V41" t="n">
-        <v>1278.348166735912</v>
+        <v>1672.273209351555</v>
       </c>
       <c r="W41" t="n">
-        <v>1278.348166735912</v>
+        <v>1672.273209351555</v>
       </c>
       <c r="X41" t="n">
-        <v>1278.348166735912</v>
+        <v>1672.273209351555</v>
       </c>
       <c r="Y41" t="n">
-        <v>1278.348166735912</v>
+        <v>1271.336536299645</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>62.15370908908379</v>
       </c>
       <c r="K42" t="n">
-        <v>125.4113800623815</v>
+        <v>602.4731977462574</v>
       </c>
       <c r="L42" t="n">
-        <v>665.730868719555</v>
+        <v>706.2915720191577</v>
       </c>
       <c r="M42" t="n">
-        <v>1206.050357376729</v>
+        <v>835.282249609038</v>
       </c>
       <c r="N42" t="n">
-        <v>1746.369846033902</v>
+        <v>973.5224278018597</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.428460200631</v>
+        <v>1090.98616638183</v>
       </c>
       <c r="P42" t="n">
-        <v>2006.873574368651</v>
+        <v>1600.903417364878</v>
       </c>
       <c r="Q42" t="n">
         <v>2044.442569349528</v>
@@ -7554,10 +7554,10 @@
         <v>190.5725143263678</v>
       </c>
       <c r="E43" t="n">
-        <v>43.66218090158979</v>
+        <v>190.5725143263678</v>
       </c>
       <c r="F43" t="n">
-        <v>43.66218090158979</v>
+        <v>190.5725143263678</v>
       </c>
       <c r="G43" t="n">
         <v>43.66218090158979</v>
@@ -7569,10 +7569,10 @@
         <v>43.66218090158979</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2508563378977</v>
+        <v>101.2508563378976</v>
       </c>
       <c r="K43" t="n">
-        <v>327.2971136830527</v>
+        <v>327.2971136830525</v>
       </c>
       <c r="L43" t="n">
         <v>678.6818293819852</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>651.8430602469286</v>
+        <v>1289.157399117736</v>
       </c>
       <c r="C44" t="n">
-        <v>241.7184695601987</v>
+        <v>879.0328084310056</v>
       </c>
       <c r="D44" t="n">
-        <v>241.7184695601987</v>
+        <v>879.0328084310056</v>
       </c>
       <c r="E44" t="n">
-        <v>241.7184695601987</v>
+        <v>464.6925929479023</v>
       </c>
       <c r="F44" t="n">
-        <v>241.7184695601987</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="G44" t="n">
         <v>43.66218090158979</v>
@@ -7648,19 +7648,19 @@
         <v>43.66218090158979</v>
       </c>
       <c r="J44" t="n">
-        <v>87.50545921186747</v>
+        <v>414.2812860995966</v>
       </c>
       <c r="K44" t="n">
-        <v>173.7642680911461</v>
+        <v>678.0600657443296</v>
       </c>
       <c r="L44" t="n">
-        <v>714.0837567483196</v>
+        <v>800.01695923718</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.403245405493</v>
+        <v>1340.336447894354</v>
       </c>
       <c r="N44" t="n">
-        <v>1794.722734062667</v>
+        <v>1880.655936551527</v>
       </c>
       <c r="O44" t="n">
         <v>2019.538516187038</v>
@@ -7675,25 +7675,25 @@
         <v>2183.109045079489</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.723612210912</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="T44" t="n">
-        <v>1863.644310794376</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="U44" t="n">
-        <v>1863.644310794376</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="V44" t="n">
-        <v>1863.644310794376</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="W44" t="n">
-        <v>1863.644310794376</v>
+        <v>1967.029743662953</v>
       </c>
       <c r="X44" t="n">
-        <v>1463.000912963328</v>
+        <v>1699.378578782225</v>
       </c>
       <c r="Y44" t="n">
-        <v>1062.064239911418</v>
+        <v>1699.378578782225</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>832.4291562585503</v>
+        <v>693.7626805285897</v>
       </c>
       <c r="C45" t="n">
-        <v>698.4340850074959</v>
+        <v>559.7676092775355</v>
       </c>
       <c r="D45" t="n">
-        <v>581.5369272268883</v>
+        <v>442.8704514969279</v>
       </c>
       <c r="E45" t="n">
-        <v>461.0441112192163</v>
+        <v>322.3776354892559</v>
       </c>
       <c r="F45" t="n">
-        <v>352.0842314017209</v>
+        <v>213.4177556717604</v>
       </c>
       <c r="G45" t="n">
-        <v>245.843023736878</v>
+        <v>107.1765480069175</v>
       </c>
       <c r="H45" t="n">
-        <v>182.3286566315503</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I45" t="n">
-        <v>182.3286566315503</v>
+        <v>48.59804006746689</v>
       </c>
       <c r="J45" t="n">
-        <v>200.8201848190443</v>
+        <v>310.7579722295942</v>
       </c>
       <c r="K45" t="n">
-        <v>741.1396734762178</v>
+        <v>851.0774608867678</v>
       </c>
       <c r="L45" t="n">
-        <v>844.9580477491181</v>
+        <v>1054.631691071739</v>
       </c>
       <c r="M45" t="n">
-        <v>1349.516644668646</v>
+        <v>1183.622368661619</v>
       </c>
       <c r="N45" t="n">
-        <v>1487.756822861468</v>
+        <v>1321.862546854441</v>
       </c>
       <c r="O45" t="n">
-        <v>1605.220561441438</v>
+        <v>1439.326285434411</v>
       </c>
       <c r="P45" t="n">
-        <v>2145.540050098612</v>
+        <v>1525.771399602432</v>
       </c>
       <c r="Q45" t="n">
-        <v>2183.109045079489</v>
+        <v>1969.310551587083</v>
       </c>
       <c r="R45" t="n">
-        <v>2183.109045079489</v>
+        <v>2044.442569349528</v>
       </c>
       <c r="S45" t="n">
-        <v>2089.029617488385</v>
+        <v>1950.363141758424</v>
       </c>
       <c r="T45" t="n">
-        <v>1932.706366456674</v>
+        <v>1794.039890726713</v>
       </c>
       <c r="U45" t="n">
-        <v>1735.404825662052</v>
+        <v>1596.738349932091</v>
       </c>
       <c r="V45" t="n">
-        <v>1521.693298655086</v>
+        <v>1383.026822925125</v>
       </c>
       <c r="W45" t="n">
-        <v>1308.460130391414</v>
+        <v>1169.793654661454</v>
       </c>
       <c r="X45" t="n">
-        <v>1132.134148530307</v>
+        <v>993.4676728003463</v>
       </c>
       <c r="Y45" t="n">
-        <v>972.7321888941369</v>
+        <v>834.0657131641764</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1107.904589875371</v>
+        <v>850.945265979334</v>
       </c>
       <c r="C46" t="n">
-        <v>936.8112174370876</v>
+        <v>679.8518935410505</v>
       </c>
       <c r="D46" t="n">
-        <v>777.3165727599976</v>
+        <v>679.8518935410505</v>
       </c>
       <c r="E46" t="n">
-        <v>616.4057576283171</v>
+        <v>518.94107840937</v>
       </c>
       <c r="F46" t="n">
-        <v>451.7746317389084</v>
+        <v>354.3099525199613</v>
       </c>
       <c r="G46" t="n">
-        <v>285.1520974765558</v>
+        <v>187.6874182576087</v>
       </c>
       <c r="H46" t="n">
-        <v>141.1268601205369</v>
+        <v>43.66218090158979</v>
       </c>
       <c r="I46" t="n">
         <v>43.66218090158979</v>
@@ -7830,28 +7830,28 @@
         <v>2183.109045079489</v>
       </c>
       <c r="R46" t="n">
-        <v>2126.067052142764</v>
+        <v>2183.109045079489</v>
       </c>
       <c r="S46" t="n">
-        <v>1950.617115920886</v>
+        <v>2007.659108857611</v>
       </c>
       <c r="T46" t="n">
-        <v>1950.617115920886</v>
+        <v>1770.793030758758</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.853215202216</v>
+        <v>1770.793030758758</v>
       </c>
       <c r="V46" t="n">
-        <v>1667.853215202216</v>
+        <v>1496.90728569828</v>
       </c>
       <c r="W46" t="n">
-        <v>1520.339994880651</v>
+        <v>1217.837621207154</v>
       </c>
       <c r="X46" t="n">
-        <v>1520.339994880651</v>
+        <v>1038.644972373378</v>
       </c>
       <c r="Y46" t="n">
-        <v>1295.604296269415</v>
+        <v>1038.644972373378</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>208.9223179663055</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>67.6779873391382</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
@@ -8233,7 +8233,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>175.2980289959033</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8455,28 +8455,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q8" t="n">
-        <v>334.2508956958897</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>394.1192645454833</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>422.5884799639627</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>395.7503271756208</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>63.79762033665591</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>424.0489182454007</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2675351771111139</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>481.880623923107</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>440.9102165497709</v>
+        <v>124.1649485927209</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>396.9102822570986</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>458.4589641304577</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>458.6471512908031</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>422.5884799639628</v>
       </c>
       <c r="M14" t="n">
-        <v>32.05400871585945</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>391.4352674695773</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>85.26306517371944</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0.2675351771111139</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>124.1649485927206</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>415.4836475427206</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>406.1407176407595</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.61779341603858</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>458.4589641304577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>422.5884799639627</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>54.05612021766828</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>405.4918272946085</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.048918245401</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2675351771111139</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>481.8806239231071</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>100.7432888000714</v>
       </c>
       <c r="M18" t="n">
-        <v>415.4836475427205</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>406.1407176407594</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>422.185830513723</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>395.7503271756208</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>391.4352674695772</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>405.4918272946085</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>424.048918245401</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>104.1654024816774</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>481.880623923107</v>
+        <v>481.8806239231071</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9102165497709</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>100.7432888000714</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.88965423984698</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9652,10 +9652,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O23" t="n">
-        <v>527.7739168635886</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>412.6030413894435</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>410.6448382899766</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>66.38777007462531</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>482.3608421906499</v>
+        <v>482.3608421906497</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>419.4640180754677</v>
+        <v>63.75660516398489</v>
       </c>
       <c r="N26" t="n">
-        <v>415.1489583694242</v>
+        <v>415.1489583694239</v>
       </c>
       <c r="O26" t="n">
-        <v>73.4981052829728</v>
+        <v>429.2055181944552</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>181.3279010548167</v>
+        <v>505.5943148229537</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>482.1726550303046</v>
+        <v>77.02959790022507</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>482.3608421906497</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>162.8855305425521</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>167.3151872121808</v>
+        <v>415.1489583694239</v>
       </c>
       <c r="O29" t="n">
-        <v>429.2055181944554</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>463.8746256959903</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>505.5943148229537</v>
       </c>
       <c r="L30" t="n">
-        <v>310.7968294870482</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>450.8407111798502</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>482.1726550303046</v>
+        <v>77.02959790022507</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>482.3608421906499</v>
+        <v>482.3608421906497</v>
       </c>
       <c r="L32" t="n">
-        <v>446.3021708638096</v>
+        <v>446.3021708638094</v>
       </c>
       <c r="M32" t="n">
-        <v>419.4640180754677</v>
+        <v>131.7323180481666</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>42.61242796569839</v>
+        <v>0.2675351771111139</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>505.5943148229537</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1973384425675</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>429.8544085406063</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>450.6493757468029</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>77.02959790022507</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>458.647151290803</v>
       </c>
       <c r="L35" t="n">
-        <v>422.5884799639628</v>
+        <v>422.5884799639627</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>395.7503271756208</v>
       </c>
       <c r="N35" t="n">
-        <v>391.4352674695774</v>
+        <v>19.58933081398655</v>
       </c>
       <c r="O35" t="n">
-        <v>42.39060701468978</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>440.1609347961435</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>14.77974210486898</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>440.9102165497709</v>
       </c>
       <c r="M36" t="n">
-        <v>415.4836475427206</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>406.1407176407595</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>427.1270202800033</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>458.4589641304576</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.94973726649322</v>
+        <v>98.3113140324961</v>
       </c>
       <c r="R36" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>458.647151290803</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>371.6372780652368</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>391.4352674695772</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>405.4918272946085</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>93.4126833695484</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>0.2675351771111139</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>481.880623923107</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>415.4836475427205</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>406.1407176407594</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>427.1270202800032</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>70.94973726649323</v>
+        <v>100.7432888000716</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>458.647151290803</v>
       </c>
       <c r="L41" t="n">
         <v>422.5884799639627</v>
       </c>
       <c r="M41" t="n">
-        <v>395.7503271756208</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>391.4352674695772</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>86.8012146352122</v>
+        <v>405.4918272946085</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2675351771111139</v>
+        <v>10.11536587211002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>481.880623923107</v>
       </c>
       <c r="L42" t="n">
-        <v>440.9102165497709</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>415.4836475427205</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>406.1407176407594</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.1665409967255</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.7496331464922</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>12.96737243892455</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>179.3131017832872</v>
       </c>
       <c r="L44" t="n">
-        <v>422.5884799639627</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>395.7503271756208</v>
@@ -11311,7 +11311,7 @@
         <v>391.4352674695772</v>
       </c>
       <c r="O44" t="n">
-        <v>86.8012146352122</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.77974210486898</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>481.880623923107</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>100.7432888000715</v>
       </c>
       <c r="M45" t="n">
-        <v>379.3615346764119</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>458.4589641304576</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>12.96737243892455</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23272,10 +23272,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>272.3589531627676</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>198.9716902180332</v>
       </c>
       <c r="I11" t="n">
         <v>32.06596601287146</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>39.76238784831257</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>73.74147397947461</v>
       </c>
       <c r="I13" t="n">
-        <v>96.49003242675761</v>
+        <v>96.49003242675762</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H14" t="n">
         <v>293.6080910769474</v>
       </c>
       <c r="I14" t="n">
-        <v>32.06596601287146</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>102.3515785398912</v>
       </c>
       <c r="T14" t="n">
-        <v>213.9185084023712</v>
+        <v>138.1357977692545</v>
       </c>
       <c r="U14" t="n">
         <v>254.3790306575067</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>205.4483414153115</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>72.68101428143842</v>
       </c>
       <c r="U16" t="n">
-        <v>88.45932919951551</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>56.57207287645093</v>
       </c>
       <c r="E17" t="n">
-        <v>293.1464692128296</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23785,7 +23785,7 @@
         <v>102.3515785398912</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>10.20646535009919</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.5849849824587</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>56.4715730073581</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T19" t="n">
-        <v>98.56574099717054</v>
+        <v>234.4974173178651</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>15.86628926646523</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>403.2552991963672</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>293.6080910769474</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>102.3515785398912</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24034,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>184.517577559029</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.02011864090048</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H22" t="n">
         <v>142.5849849824587</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>90.45819597737926</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.4590638627372</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>336.4333578002302</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>95.86986545535764</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>56.4715730073581</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.695436859659</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>279.9362617114834</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>28.3304623268881</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>226.4253436508442</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>293.6080910769474</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24508,10 +24508,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.21578786064362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S28" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>50.57698956674335</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9362617114834</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>273.9914321091886</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>364.2361682432232</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>232.7533365258207</v>
       </c>
       <c r="H29" t="n">
         <v>293.6080910769474</v>
@@ -24733,22 +24733,22 @@
         <v>102.3515785398912</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U29" t="n">
         <v>254.3790306575067</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>56.4715730073581</v>
       </c>
       <c r="S31" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9362617114834</v>
       </c>
       <c r="V31" t="n">
-        <v>127.2449192781513</v>
+        <v>162.6687731827031</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>330.7646069387965</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>300.3948683787262</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>119.7959915802841</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S34" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>192.5058663871195</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>215.782070437726</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>403.2552991963672</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>293.6080910769474</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>32.06596601287146</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9185084023712</v>
       </c>
       <c r="U35" t="n">
         <v>254.3790306575067</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>315.685389711474</v>
       </c>
     </row>
     <row r="36">
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S37" t="n">
-        <v>173.695436859659</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>96.01583396036168</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>171.4581472843134</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>403.2552991963672</v>
+        <v>240.6322245043381</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>293.6080910769474</v>
       </c>
       <c r="I38" t="n">
         <v>32.06596601287146</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>102.3515785398912</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9185084023712</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.3790306575067</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>112.2019506138715</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>79.69196463696005</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>56.13756079420875</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.9563089197291</v>
       </c>
       <c r="H40" t="n">
         <v>142.5849849824587</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>403.2552991963672</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>293.6080910769474</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.27502715651249</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>54.53021014860028</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3790306575067</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>13.86047688983354</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.9563089197291</v>
+        <v>19.5150788291989</v>
       </c>
       <c r="H43" t="n">
         <v>142.5849849824587</v>
@@ -25873,13 +25873,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>207.1795734243443</v>
+        <v>403.2552991963672</v>
       </c>
       <c r="H44" t="n">
         <v>293.6080910769474</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>102.3515785398912</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>131.6623106208168</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.49003242675761</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>56.4715730073581</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>234.4974173178651</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9362617114834</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.2408797278651</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>58.55970117347562</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>510777.1953085582</v>
+        <v>510777.1953085583</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>510777.1953085583</v>
+        <v>510777.1953085584</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>510777.1953085584</v>
+        <v>510777.1953085583</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739153.3260534909</v>
+        <v>739153.3260534906</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>510777.1953085584</v>
+        <v>510777.1953085583</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>510777.1953085583</v>
+        <v>510777.1953085584</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>510777.1953085582</v>
+        <v>510777.1953085583</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>257766.9936456897</v>
       </c>
       <c r="G2" t="n">
+        <v>257766.9936456898</v>
+      </c>
+      <c r="H2" t="n">
         <v>257766.9936456897</v>
       </c>
-      <c r="H2" t="n">
-        <v>257766.9936456898</v>
-      </c>
       <c r="I2" t="n">
-        <v>363140.1003236119</v>
+        <v>363140.1003236117</v>
       </c>
       <c r="J2" t="n">
-        <v>262345.3912049851</v>
+        <v>262345.3912049849</v>
       </c>
       <c r="K2" t="n">
         <v>262345.391204985</v>
       </c>
       <c r="L2" t="n">
-        <v>262345.391204985</v>
+        <v>262345.3912049851</v>
       </c>
       <c r="M2" t="n">
-        <v>257766.9936456897</v>
+        <v>257766.9936456899</v>
       </c>
       <c r="N2" t="n">
-        <v>257766.9936456898</v>
+        <v>257766.9936456899</v>
       </c>
       <c r="O2" t="n">
         <v>257766.9936456897</v>
       </c>
       <c r="P2" t="n">
-        <v>257766.9936456898</v>
+        <v>257766.9936456899</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.374401997774843e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242030.133815288</v>
+        <v>242030.1338152881</v>
       </c>
       <c r="C4" t="n">
-        <v>242030.133815288</v>
+        <v>242030.1338152881</v>
       </c>
       <c r="D4" t="n">
         <v>242030.1338152881</v>
@@ -26429,28 +26429,28 @@
         <v>47260.97005480014</v>
       </c>
       <c r="F4" t="n">
-        <v>47260.97005480014</v>
+        <v>47260.97005480013</v>
       </c>
       <c r="G4" t="n">
         <v>47260.97005480014</v>
       </c>
       <c r="H4" t="n">
+        <v>47260.97005480014</v>
+      </c>
+      <c r="I4" t="n">
+        <v>86223.53903763754</v>
+      </c>
+      <c r="J4" t="n">
+        <v>48953.87003999409</v>
+      </c>
+      <c r="K4" t="n">
+        <v>48953.87003999409</v>
+      </c>
+      <c r="L4" t="n">
+        <v>48953.87003999409</v>
+      </c>
+      <c r="M4" t="n">
         <v>47260.97005480013</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86223.53903763753</v>
-      </c>
-      <c r="J4" t="n">
-        <v>48953.87003999411</v>
-      </c>
-      <c r="K4" t="n">
-        <v>48953.8700399941</v>
-      </c>
-      <c r="L4" t="n">
-        <v>48953.8700399941</v>
-      </c>
-      <c r="M4" t="n">
-        <v>47260.97005480014</v>
       </c>
       <c r="N4" t="n">
         <v>47260.97005480014</v>
@@ -26484,25 +26484,25 @@
         <v>40697.57338383101</v>
       </c>
       <c r="G5" t="n">
+        <v>40697.57338383101</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40697.57338383101</v>
+      </c>
+      <c r="I5" t="n">
+        <v>73880.83086903923</v>
+      </c>
+      <c r="J5" t="n">
+        <v>42139.36579054168</v>
+      </c>
+      <c r="K5" t="n">
+        <v>42139.36579054168</v>
+      </c>
+      <c r="L5" t="n">
+        <v>42139.36579054168</v>
+      </c>
+      <c r="M5" t="n">
         <v>40697.573383831</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40697.573383831</v>
-      </c>
-      <c r="I5" t="n">
-        <v>73880.83086903924</v>
-      </c>
-      <c r="J5" t="n">
-        <v>42139.3657905417</v>
-      </c>
-      <c r="K5" t="n">
-        <v>42139.3657905417</v>
-      </c>
-      <c r="L5" t="n">
-        <v>42139.3657905417</v>
-      </c>
-      <c r="M5" t="n">
-        <v>40697.57338383101</v>
       </c>
       <c r="N5" t="n">
         <v>40697.573383831</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75148.72620575738</v>
+        <v>-75148.72620575735</v>
       </c>
       <c r="C6" t="n">
-        <v>99806.78368735663</v>
+        <v>99806.7836873566</v>
       </c>
       <c r="D6" t="n">
         <v>99806.78368735671</v>
       </c>
       <c r="E6" t="n">
-        <v>-114199.6396761436</v>
+        <v>-114797.3956318854</v>
       </c>
       <c r="F6" t="n">
-        <v>169808.4502070585</v>
+        <v>169210.6942513168</v>
       </c>
       <c r="G6" t="n">
-        <v>169808.4502070586</v>
+        <v>169210.6942513168</v>
       </c>
       <c r="H6" t="n">
-        <v>169808.4502070587</v>
+        <v>169210.6942513168</v>
       </c>
       <c r="I6" t="n">
-        <v>57902.09532278939</v>
+        <v>57725.8317937591</v>
       </c>
       <c r="J6" t="n">
-        <v>171252.1553744494</v>
+        <v>170672.7130089445</v>
       </c>
       <c r="K6" t="n">
-        <v>171252.1553744492</v>
+        <v>170672.7130089446</v>
       </c>
       <c r="L6" t="n">
-        <v>171252.1553744492</v>
+        <v>170672.7130089447</v>
       </c>
       <c r="M6" t="n">
-        <v>169808.4502070586</v>
+        <v>169210.6942513169</v>
       </c>
       <c r="N6" t="n">
-        <v>169808.4502070586</v>
+        <v>169210.6942513169</v>
       </c>
       <c r="O6" t="n">
-        <v>169808.4502070586</v>
+        <v>169210.6942513168</v>
       </c>
       <c r="P6" t="n">
-        <v>169808.4502070587</v>
+        <v>169210.6942513169</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>344.6933898450812</v>
+        <v>344.6933898450811</v>
       </c>
       <c r="F3" t="n">
         <v>344.6933898450812</v>
@@ -26804,25 +26804,25 @@
         <v>545.7772612698724</v>
       </c>
       <c r="G4" t="n">
-        <v>545.7772612698723</v>
+        <v>545.7772612698724</v>
       </c>
       <c r="H4" t="n">
-        <v>545.7772612698723</v>
+        <v>545.7772612698724</v>
       </c>
       <c r="I4" t="n">
         <v>1091.554522539745</v>
       </c>
       <c r="J4" t="n">
-        <v>569.4909521697192</v>
+        <v>569.490952169719</v>
       </c>
       <c r="K4" t="n">
-        <v>569.4909521697192</v>
+        <v>569.490952169719</v>
       </c>
       <c r="L4" t="n">
-        <v>569.4909521697192</v>
+        <v>569.490952169719</v>
       </c>
       <c r="M4" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="N4" t="n">
         <v>545.7772612698723</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>344.6933898450812</v>
+        <v>344.6933898450811</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.205731028013953e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5105722195416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>142.3384501136874</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>50.26863570068092</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27593,13 +27593,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>56.01419322081136</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>383.8580275794144</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>152.1234863376403</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>106.1375450567848</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27791,10 +27791,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>46.5774375675588</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>215.9515941451597</v>
+        <v>54.23311445908439</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>170.535215949722</v>
+        <v>135.1273715286596</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.385702069728969</v>
+        <v>1.385702069728968</v>
       </c>
       <c r="H11" t="n">
         <v>14.1913213216118</v>
       </c>
       <c r="I11" t="n">
-        <v>53.42227904322611</v>
+        <v>53.4222790432261</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6097310406592</v>
+        <v>117.6097310406591</v>
       </c>
       <c r="K11" t="n">
         <v>176.2664996522864</v>
@@ -31773,7 +31773,7 @@
         <v>243.3171585512969</v>
       </c>
       <c r="N11" t="n">
-        <v>247.2542845569144</v>
+        <v>247.2542845569143</v>
       </c>
       <c r="O11" t="n">
         <v>233.4752096010469</v>
@@ -31785,16 +31785,16 @@
         <v>149.6402343824442</v>
       </c>
       <c r="R11" t="n">
-        <v>87.0446076376124</v>
+        <v>87.04460763761239</v>
       </c>
       <c r="S11" t="n">
         <v>31.5766859139489</v>
       </c>
       <c r="T11" t="n">
-        <v>6.065910810238563</v>
+        <v>6.065910810238562</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1108561655783175</v>
+        <v>0.1108561655783174</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7414159706101746</v>
+        <v>0.7414159706101745</v>
       </c>
       <c r="H12" t="n">
-        <v>7.160517400366688</v>
+        <v>7.160517400366687</v>
       </c>
       <c r="I12" t="n">
-        <v>25.52682179513102</v>
+        <v>25.52682179513101</v>
       </c>
       <c r="J12" t="n">
-        <v>70.04755010049901</v>
+        <v>70.047550100499</v>
       </c>
       <c r="K12" t="n">
         <v>119.7224201313807</v>
@@ -31858,22 +31858,22 @@
         <v>176.401719989869</v>
       </c>
       <c r="P12" t="n">
-        <v>141.5779321422184</v>
+        <v>141.5779321422183</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.6410982835023</v>
+        <v>94.64109828350229</v>
       </c>
       <c r="R12" t="n">
-        <v>46.03282666648086</v>
+        <v>46.03282666648085</v>
       </c>
       <c r="S12" t="n">
-        <v>13.77147647164074</v>
+        <v>13.77147647164073</v>
       </c>
       <c r="T12" t="n">
-        <v>2.988426653468203</v>
+        <v>2.988426653468202</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04877736648751151</v>
+        <v>0.0487773664875115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6215782439829333</v>
+        <v>0.6215782439829332</v>
       </c>
       <c r="H13" t="n">
         <v>5.526395660139173</v>
@@ -31925,25 +31925,25 @@
         <v>72.21609052819895</v>
       </c>
       <c r="L13" t="n">
-        <v>92.41173274633537</v>
+        <v>92.41173274633536</v>
       </c>
       <c r="M13" t="n">
-        <v>97.43521509997923</v>
+        <v>97.43521509997922</v>
       </c>
       <c r="N13" t="n">
-        <v>95.11842346331565</v>
+        <v>95.11842346331564</v>
       </c>
       <c r="O13" t="n">
-        <v>87.85725943133318</v>
+        <v>87.85725943133316</v>
       </c>
       <c r="P13" t="n">
-        <v>75.17706325408128</v>
+        <v>75.17706325408126</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.04870186660726</v>
+        <v>52.04870186660725</v>
       </c>
       <c r="R13" t="n">
-        <v>27.94841813399625</v>
+        <v>27.94841813399624</v>
       </c>
       <c r="S13" t="n">
         <v>10.83241357922984</v>
@@ -31952,7 +31952,7 @@
         <v>2.655834315199805</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03390426785361458</v>
+        <v>0.03390426785361457</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>135.5987266329975</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>14.48459394538821</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35175,28 +35175,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
-        <v>244.2170912967376</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>338.0047407346343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K11" t="n">
-        <v>87.1301099790693</v>
+        <v>87.13010997906927</v>
       </c>
       <c r="L11" t="n">
-        <v>545.7772612698723</v>
+        <v>123.1887813059095</v>
       </c>
       <c r="M11" t="n">
-        <v>545.7772612698723</v>
+        <v>150.0269340942514</v>
       </c>
       <c r="N11" t="n">
-        <v>218.1396141369509</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O11" t="n">
-        <v>140.2854339752638</v>
+        <v>140.2854339752637</v>
       </c>
       <c r="P11" t="n">
-        <v>105.6163264737288</v>
+        <v>529.6652447191295</v>
       </c>
       <c r="Q11" t="n">
-        <v>474.0452917514261</v>
+        <v>474.045291751426</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.0109164149506</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4.985716329168788</v>
       </c>
       <c r="J12" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K12" t="n">
-        <v>545.7772612698723</v>
+        <v>63.8966373467653</v>
       </c>
       <c r="L12" t="n">
-        <v>545.7772612698723</v>
+        <v>229.0319933128222</v>
       </c>
       <c r="M12" t="n">
         <v>130.2936137271518</v>
@@ -35503,16 +35503,16 @@
         <v>139.6365436291129</v>
       </c>
       <c r="O12" t="n">
-        <v>515.5605232469677</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P12" t="n">
-        <v>87.31829713941463</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.1703792285939</v>
+        <v>58.17037922859389</v>
       </c>
       <c r="K13" t="n">
         <v>228.3295528738939</v>
@@ -35576,7 +35576,7 @@
         <v>354.9340562615481</v>
       </c>
       <c r="M13" t="n">
-        <v>389.6211306964371</v>
+        <v>389.621130696437</v>
       </c>
       <c r="N13" t="n">
         <v>378.7939612352856</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K14" t="n">
         <v>545.7772612698724</v>
       </c>
       <c r="L14" t="n">
-        <v>123.1887813059096</v>
+        <v>545.7772612698724</v>
       </c>
       <c r="M14" t="n">
-        <v>182.0809428101109</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N14" t="n">
-        <v>545.7772612698724</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O14" t="n">
-        <v>140.2854339752638</v>
+        <v>225.5484991489832</v>
       </c>
       <c r="P14" t="n">
         <v>105.6163264737288</v>
       </c>
       <c r="Q14" t="n">
-        <v>474.0452917514261</v>
+        <v>59.6064299832922</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J15" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K15" t="n">
-        <v>63.89663734676531</v>
+        <v>188.0615859394859</v>
       </c>
       <c r="L15" t="n">
         <v>104.8670447201014</v>
       </c>
       <c r="M15" t="n">
-        <v>545.7772612698724</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N15" t="n">
-        <v>545.7772612698724</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O15" t="n">
-        <v>158.2680344059076</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P15" t="n">
         <v>545.7772612698724</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K17" t="n">
         <v>87.1301099790693</v>
       </c>
       <c r="L17" t="n">
-        <v>545.7772612698723</v>
+        <v>123.1887813059096</v>
       </c>
       <c r="M17" t="n">
-        <v>204.0830543119198</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N17" t="n">
         <v>154.341993800295</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7772612698723</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P17" t="n">
-        <v>105.6163264737288</v>
+        <v>529.6652447191298</v>
       </c>
       <c r="Q17" t="n">
         <v>474.0452917514261</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.0109164149506</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J18" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K18" t="n">
-        <v>63.89663734676531</v>
+        <v>545.7772612698724</v>
       </c>
       <c r="L18" t="n">
-        <v>104.8670447201014</v>
+        <v>205.6103335201728</v>
       </c>
       <c r="M18" t="n">
-        <v>545.7772612698723</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N18" t="n">
-        <v>545.7772612698723</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O18" t="n">
         <v>118.650240989869</v>
       </c>
       <c r="P18" t="n">
-        <v>509.5041276531376</v>
+        <v>87.31829713941463</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R18" t="n">
         <v>75.89092703277367</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K20" t="n">
         <v>87.1301099790693</v>
@@ -36129,22 +36129,22 @@
         <v>123.1887813059096</v>
       </c>
       <c r="M20" t="n">
-        <v>545.7772612698723</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N20" t="n">
-        <v>545.7772612698723</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7772612698723</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P20" t="n">
-        <v>105.6163264737288</v>
+        <v>529.6652447191298</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.6064299832922</v>
+        <v>474.0452917514261</v>
       </c>
       <c r="R20" t="n">
-        <v>103.8978673045662</v>
+        <v>128.0109164149506</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J21" t="n">
         <v>264.8080122849771</v>
       </c>
       <c r="K21" t="n">
-        <v>545.7772612698723</v>
+        <v>545.7772612698724</v>
       </c>
       <c r="L21" t="n">
-        <v>545.7772612698723</v>
+        <v>104.8670447201014</v>
       </c>
       <c r="M21" t="n">
         <v>130.2936137271518</v>
@@ -36217,10 +36217,10 @@
         <v>118.650240989869</v>
       </c>
       <c r="P21" t="n">
-        <v>87.31829713941463</v>
+        <v>188.061585939486</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.8381340185106</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R21" t="n">
         <v>75.89092703277367</v>
@@ -36372,10 +36372,10 @@
         <v>1008.043190252488</v>
       </c>
       <c r="O23" t="n">
-        <v>668.0593508388524</v>
+        <v>883.6073878001428</v>
       </c>
       <c r="P23" t="n">
-        <v>733.767404824463</v>
+        <v>518.2193678631724</v>
       </c>
       <c r="Q23" t="n">
         <v>59.6064299832922</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J24" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K24" t="n">
-        <v>63.89663734676531</v>
+        <v>580.1327799953187</v>
       </c>
       <c r="L24" t="n">
         <v>104.8670447201014</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.349898167152</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N24" t="n">
-        <v>550.2813819190895</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O24" t="n">
         <v>118.650240989869</v>
       </c>
       <c r="P24" t="n">
-        <v>87.31829713941463</v>
+        <v>153.7060672140399</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>44.28613970735121</v>
       </c>
       <c r="K26" t="n">
-        <v>569.4909521697192</v>
+        <v>569.490952169719</v>
       </c>
       <c r="L26" t="n">
         <v>123.1887813059096</v>
       </c>
       <c r="M26" t="n">
-        <v>569.4909521697192</v>
+        <v>213.7835392582364</v>
       </c>
       <c r="N26" t="n">
-        <v>569.4909521697192</v>
+        <v>569.490952169719</v>
       </c>
       <c r="O26" t="n">
-        <v>213.7835392582366</v>
+        <v>569.490952169719</v>
       </c>
       <c r="P26" t="n">
         <v>105.6163264737288</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J27" t="n">
         <v>264.8080122849771</v>
       </c>
       <c r="K27" t="n">
-        <v>245.224538401582</v>
+        <v>569.490952169719</v>
       </c>
       <c r="L27" t="n">
         <v>104.8670447201014</v>
@@ -36691,13 +36691,13 @@
         <v>118.650240989869</v>
       </c>
       <c r="P27" t="n">
-        <v>569.4909521697192</v>
+        <v>164.3478950396397</v>
       </c>
       <c r="Q27" t="n">
         <v>448.019345439041</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>374.3627325232392</v>
       </c>
       <c r="K29" t="n">
-        <v>87.1301099790693</v>
+        <v>569.490952169719</v>
       </c>
       <c r="L29" t="n">
-        <v>123.1887813059096</v>
+        <v>286.0743118484617</v>
       </c>
       <c r="M29" t="n">
         <v>150.0269340942515</v>
       </c>
       <c r="N29" t="n">
-        <v>321.6571810124759</v>
+        <v>569.490952169719</v>
       </c>
       <c r="O29" t="n">
-        <v>569.4909521697192</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P29" t="n">
-        <v>569.4909521697192</v>
+        <v>105.6163264737288</v>
       </c>
       <c r="Q29" t="n">
         <v>59.6064299832922</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J30" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K30" t="n">
-        <v>63.89663734676531</v>
+        <v>569.490952169719</v>
       </c>
       <c r="L30" t="n">
-        <v>415.6638742071496</v>
+        <v>104.8670447201014</v>
       </c>
       <c r="M30" t="n">
         <v>130.2936137271518</v>
@@ -36925,13 +36925,13 @@
         <v>139.6365436291129</v>
       </c>
       <c r="O30" t="n">
-        <v>569.4909521697192</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P30" t="n">
-        <v>569.4909521697192</v>
+        <v>164.3478950396397</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R30" t="n">
         <v>75.89092703277367</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K32" t="n">
-        <v>569.4909521697192</v>
+        <v>569.490952169719</v>
       </c>
       <c r="L32" t="n">
-        <v>569.4909521697192</v>
+        <v>569.490952169719</v>
       </c>
       <c r="M32" t="n">
-        <v>569.4909521697192</v>
+        <v>281.7592521424181</v>
       </c>
       <c r="N32" t="n">
         <v>154.341993800295</v>
@@ -37092,7 +37092,7 @@
         <v>59.6064299832922</v>
       </c>
       <c r="R32" t="n">
-        <v>42.34489278858727</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J33" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K33" t="n">
-        <v>63.89663734676531</v>
+        <v>569.490952169719</v>
       </c>
       <c r="L33" t="n">
         <v>104.8670447201014</v>
       </c>
       <c r="M33" t="n">
-        <v>569.4909521697192</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N33" t="n">
-        <v>569.4909521697192</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O33" t="n">
-        <v>569.299616736672</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P33" t="n">
-        <v>87.31829713941463</v>
+        <v>164.3478950396397</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>44.28613970735121</v>
       </c>
       <c r="K35" t="n">
-        <v>87.1301099790693</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L35" t="n">
-        <v>545.7772612698724</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="M35" t="n">
-        <v>150.0269340942515</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="N35" t="n">
-        <v>545.7772612698724</v>
+        <v>173.9313246142816</v>
       </c>
       <c r="O35" t="n">
-        <v>182.6760409899536</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P35" t="n">
-        <v>545.7772612698724</v>
+        <v>105.6163264737288</v>
       </c>
       <c r="Q35" t="n">
         <v>59.6064299832922</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K36" t="n">
         <v>63.89663734676531</v>
       </c>
       <c r="L36" t="n">
-        <v>104.8670447201014</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="M36" t="n">
-        <v>545.7772612698724</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N36" t="n">
-        <v>545.7772612698724</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O36" t="n">
-        <v>545.7772612698724</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P36" t="n">
-        <v>87.31829713941463</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="Q36" t="n">
-        <v>108.8982170451568</v>
+        <v>136.2597938111597</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>350.0396941045394</v>
       </c>
       <c r="P37" t="n">
-        <v>282.9300332031851</v>
+        <v>282.9300332031847</v>
       </c>
       <c r="Q37" t="n">
         <v>118.2386309600525</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K38" t="n">
-        <v>87.1301099790693</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L38" t="n">
         <v>123.1887813059096</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6642121594883</v>
+        <v>150.0269340942515</v>
       </c>
       <c r="N38" t="n">
-        <v>545.7772612698723</v>
+        <v>154.341993800295</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7772612698723</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P38" t="n">
-        <v>105.6163264737288</v>
+        <v>199.0290098432772</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.6064299832922</v>
+        <v>474.0452917514261</v>
       </c>
       <c r="R38" t="n">
-        <v>128.0109164149506</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J39" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K39" t="n">
-        <v>63.89663734676531</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L39" t="n">
         <v>104.8670447201014</v>
       </c>
       <c r="M39" t="n">
-        <v>545.7772612698723</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N39" t="n">
-        <v>545.7772612698723</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O39" t="n">
-        <v>545.7772612698723</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P39" t="n">
-        <v>158.2680344059079</v>
+        <v>188.0615859394862</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>44.28613970735121</v>
       </c>
       <c r="K41" t="n">
-        <v>87.1301099790693</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L41" t="n">
         <v>545.7772612698723</v>
       </c>
       <c r="M41" t="n">
+        <v>150.0269340942515</v>
+      </c>
+      <c r="N41" t="n">
+        <v>154.341993800295</v>
+      </c>
+      <c r="O41" t="n">
         <v>545.7772612698723</v>
-      </c>
-      <c r="N41" t="n">
-        <v>545.7772612698723</v>
-      </c>
-      <c r="O41" t="n">
-        <v>227.086648610476</v>
       </c>
       <c r="P41" t="n">
         <v>105.6163264737288</v>
@@ -37803,7 +37803,7 @@
         <v>59.6064299832922</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.847830694998908</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>18.678311300499</v>
       </c>
       <c r="K42" t="n">
-        <v>63.89663734676531</v>
+        <v>545.7772612698723</v>
       </c>
       <c r="L42" t="n">
-        <v>545.7772612698723</v>
+        <v>104.8670447201014</v>
       </c>
       <c r="M42" t="n">
-        <v>545.7772612698723</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N42" t="n">
-        <v>545.7772612698723</v>
+        <v>139.6365436291129</v>
       </c>
       <c r="O42" t="n">
-        <v>175.8167819865945</v>
+        <v>118.650240989869</v>
       </c>
       <c r="P42" t="n">
-        <v>87.31829713941463</v>
+        <v>515.0679302859069</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.28613970735121</v>
+        <v>374.3627325232392</v>
       </c>
       <c r="K44" t="n">
-        <v>87.1301099790693</v>
+        <v>266.4432117623565</v>
       </c>
       <c r="L44" t="n">
-        <v>545.7772612698723</v>
+        <v>123.1887813059096</v>
       </c>
       <c r="M44" t="n">
         <v>545.7772612698723</v>
@@ -38031,7 +38031,7 @@
         <v>545.7772612698723</v>
       </c>
       <c r="O44" t="n">
-        <v>227.086648610476</v>
+        <v>140.2854339752638</v>
       </c>
       <c r="P44" t="n">
         <v>105.6163264737288</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.985716329168792</v>
       </c>
       <c r="J45" t="n">
-        <v>18.678311300499</v>
+        <v>264.8080122849771</v>
       </c>
       <c r="K45" t="n">
         <v>545.7772612698723</v>
       </c>
       <c r="L45" t="n">
-        <v>104.8670447201014</v>
+        <v>205.6103335201729</v>
       </c>
       <c r="M45" t="n">
-        <v>509.6551484035637</v>
+        <v>130.2936137271518</v>
       </c>
       <c r="N45" t="n">
         <v>139.6365436291129</v>
@@ -38113,13 +38113,13 @@
         <v>118.650240989869</v>
       </c>
       <c r="P45" t="n">
-        <v>545.7772612698723</v>
+        <v>87.31829713941463</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.94847977866358</v>
+        <v>448.019345439041</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>75.89092703277367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
